--- a/data/validation_data.xlsx
+++ b/data/validation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\xpq\IRP\irp-px122\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3293951-D1A7-44BA-8CF8-B5B8EC489DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AADEF2-AB81-446C-B987-DD13FE17974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,13 +41,7 @@
     <t>ref.</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/0927775795034684?via%3Dihub</t>
-  </si>
-  <si>
     <t>As(V) / Fe2O3</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S1385894708003768?via%3Dihub</t>
   </si>
   <si>
     <t>HPO4(-2) / Iron hydroxide</t>
@@ -71,22 +65,13 @@
     <t>system</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/0045653595003320</t>
-  </si>
-  <si>
     <t>Cu(II) / PHC</t>
   </si>
   <si>
     <t>Cu(II) / GAC</t>
   </si>
   <si>
-    <t>https://www.inderscienceonline.com/doi/abs/10.1504/IJETM.2010.031534</t>
-  </si>
-  <si>
     <t>As(V) / laterite</t>
-  </si>
-  <si>
-    <t>https://iwaponline.com/wqrj/article/38/1/193/39492/Removal-of-Arsenic-from-Groundwater-using</t>
   </si>
   <si>
     <t>As(III) / HFO</t>
@@ -123,9 +108,6 @@
   </si>
   <si>
     <t>k2-nonlinear</t>
-  </si>
-  <si>
-    <t>best R^2</t>
   </si>
   <si>
     <t>order</t>
@@ -218,9 +200,6 @@
     <t>500 ug/L</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0147651317301823?casa_token=FBBGt7HNPk8AAAAA:j6dO08EacYfn_zF79Ew6TP5Pj_htZLOqQyaLlgpuXzKU_2VVKgi3SogCRcnA6e0ZwKZ3j08_uG9s</t>
-  </si>
-  <si>
     <t>Ct (ug/L)</t>
   </si>
   <si>
@@ -239,9 +218,6 @@
     <t>https://www.mineralstech.com/docs/default-source/performance-materials-documents/cetco/environmental-products/technical-references/fs-103-fluoro-sorb-200-kinetics-isotherm-study-6-29-21.pdf?sfvrsn=265fcd3a_4</t>
   </si>
   <si>
-    <t>literature params</t>
-  </si>
-  <si>
     <t>PFO k1</t>
   </si>
   <si>
@@ -249,9 +225,6 @@
   </si>
   <si>
     <t>PSO k2</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>% error</t>
@@ -270,6 +243,33 @@
   </si>
   <si>
     <t>best simulated model</t>
+  </si>
+  <si>
+    <t>Literature params</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>highest R^2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ecoenv.2017.03.040</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0045-6535(95)00332-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cej.2008.06.024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2166/wqrj.2003.013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1504/IJETM.2010.031534</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0927-7757(95)03468-4</t>
   </si>
 </sst>
 </file>
@@ -650,19 +650,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CP75"/>
+  <dimension ref="A1:CP76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q9" zoomScale="53" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="AP40" sqref="AP40"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="CI11" sqref="CI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" style="1" customWidth="1"/>
     <col min="2" max="10" width="8.7265625" style="1"/>
     <col min="11" max="11" width="9.6328125" style="1" customWidth="1"/>
-    <col min="12" max="42" width="8.7265625" style="1"/>
-    <col min="43" max="43" width="11.6328125" style="1" customWidth="1"/>
+    <col min="12" max="41" width="8.7265625" style="1"/>
+    <col min="42" max="43" width="8.7265625" style="1" customWidth="1"/>
     <col min="44" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -671,53 +671,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="I1" s="5" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="P1" s="5" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="W1" s="5" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="AB1" s="5" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AH1" s="5" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="5" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
       <c r="AQ1" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
@@ -725,7 +725,7 @@
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
       <c r="BA1" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BB1" s="5"/>
       <c r="BC1" s="5"/>
@@ -736,7 +736,7 @@
       <c r="BH1" s="5"/>
       <c r="BI1" s="5"/>
       <c r="BL1" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BM1" s="5"/>
       <c r="BN1" s="5"/>
@@ -747,21 +747,21 @@
       <c r="BS1" s="5"/>
       <c r="BT1" s="5"/>
       <c r="BW1" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="BX1" s="5"/>
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
       <c r="CD1" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="CE1" s="5"/>
       <c r="CF1" s="5"/>
       <c r="CG1" s="5"/>
       <c r="CH1" s="5"/>
       <c r="CK1" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="CL1" s="5"/>
       <c r="CM1" s="5"/>
@@ -771,162 +771,162 @@
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="W2" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="AB2" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AH2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
       <c r="AS2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="BA2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BD2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BW2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BL2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BW2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="CH2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="CK2" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="CL2" s="5"/>
       <c r="CM2" s="5"/>
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>20</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AT3" s="5"/>
       <c r="AU3" s="5"/>
@@ -1021,7 +1021,7 @@
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
       <c r="BA3" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
@@ -1032,7 +1032,7 @@
       <c r="BH3" s="5"/>
       <c r="BI3" s="5"/>
       <c r="BL3" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="BM3" s="5"/>
       <c r="BN3" s="5"/>
@@ -1043,21 +1043,21 @@
       <c r="BS3" s="5"/>
       <c r="BT3" s="5"/>
       <c r="BW3" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="BX3" s="5"/>
       <c r="BY3" s="5"/>
       <c r="BZ3" s="5"/>
       <c r="CA3" s="5"/>
       <c r="CD3" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="CE3" s="5"/>
       <c r="CF3" s="5"/>
       <c r="CG3" s="5"/>
       <c r="CH3" s="5"/>
       <c r="CJ3" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="CK3" s="5">
         <v>15.37</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>40</v>
@@ -1113,7 +1113,7 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
       <c r="BA4" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
@@ -1124,7 +1124,7 @@
       <c r="BH4" s="5"/>
       <c r="BI4" s="5"/>
       <c r="BL4" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="BM4" s="5"/>
       <c r="BN4" s="5"/>
@@ -1135,21 +1135,21 @@
       <c r="BS4" s="5"/>
       <c r="BT4" s="5"/>
       <c r="BW4" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="BX4" s="5"/>
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
       <c r="CA4" s="5"/>
       <c r="CD4" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="CE4" s="5"/>
       <c r="CF4" s="5"/>
       <c r="CG4" s="5"/>
       <c r="CH4" s="5"/>
       <c r="CJ4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="CK4" s="1">
         <v>10</v>
@@ -1185,73 +1185,73 @@
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="V6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="AA6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AG6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AL6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AR6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AT6" s="5"/>
       <c r="AU6" s="5"/>
@@ -1259,10 +1259,10 @@
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
       <c r="AZ6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
@@ -1273,10 +1273,10 @@
       <c r="BH6" s="5"/>
       <c r="BI6" s="5"/>
       <c r="BK6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="BL6" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="BM6" s="5"/>
       <c r="BN6" s="5"/>
@@ -1287,10 +1287,10 @@
       <c r="BS6" s="5"/>
       <c r="BT6" s="5"/>
       <c r="BV6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="BW6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BX6" s="5"/>
       <c r="BY6" s="5"/>
@@ -1298,25 +1298,25 @@
       <c r="CA6" s="5"/>
       <c r="CB6" s="2"/>
       <c r="CC6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="CD6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CE6" s="5"/>
       <c r="CF6" s="5"/>
       <c r="CG6" s="5"/>
       <c r="CH6" s="5"/>
       <c r="CJ6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="CK6" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="CL6" s="5"/>
       <c r="CM6" s="5"/>
       <c r="CN6" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="CO6" s="5"/>
       <c r="CP6" s="5"/>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <f>B8/B29</f>
@@ -3922,11 +3922,11 @@
         <v>0.17135965376503909</v>
       </c>
       <c r="AB22" s="1">
-        <f>AB8/AB46</f>
+        <f>AB8/AB47</f>
         <v>0.43227665706051877</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" ref="AC22:AE22" si="7">AC8/AC46</f>
+        <f t="shared" ref="AC22:AE22" si="7">AC8/AC47</f>
         <v>0.16479894528675018</v>
       </c>
       <c r="AD22" s="1">
@@ -3962,11 +3962,11 @@
         <v>0.19890771250447545</v>
       </c>
       <c r="AS22" s="1">
-        <f>AS8/AS46</f>
+        <f>AS8/AS47</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="AT22" s="1">
-        <f t="shared" ref="AT22:AX22" si="10">AT8/AT46</f>
+        <f t="shared" ref="AT22:AX22" si="10">AT8/AT47</f>
         <v>0.68731117824773413</v>
       </c>
       <c r="AU22" s="1">
@@ -4058,11 +4058,11 @@
         <v>0.86313149999882166</v>
       </c>
       <c r="BW22" s="1">
-        <f>BW8/BW46</f>
+        <f>BW8/BW47</f>
         <v>5.6221889055472259E-3</v>
       </c>
       <c r="BX22" s="1">
-        <f t="shared" ref="BX22:CA22" si="13">BX8/BX46</f>
+        <f t="shared" ref="BX22:CA22" si="13">BX8/BX47</f>
         <v>7.8288100208768266E-3</v>
       </c>
       <c r="BY22" s="1">
@@ -4078,11 +4078,11 @@
         <v>1.3204225352112678E-2</v>
       </c>
       <c r="CD22" s="1">
-        <f>CD8/CD46</f>
+        <f>CD8/CD47</f>
         <v>3.1481481481481478E-2</v>
       </c>
       <c r="CE22" s="1">
-        <f t="shared" ref="CE22:CH22" si="14">CE8/CE46</f>
+        <f t="shared" ref="CE22:CH22" si="14">CE8/CE47</f>
         <v>3.6956521739130437E-2</v>
       </c>
       <c r="CF22" s="1">
@@ -4112,7 +4112,7 @@
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1">
         <f>B15/B29</f>
@@ -4187,19 +4187,19 @@
         <v>0.9741037031773212</v>
       </c>
       <c r="AB23" s="1">
-        <f>AB14/AB46</f>
+        <f>AB14/AB47</f>
         <v>1.1527377521613835</v>
       </c>
       <c r="AC23" s="1">
-        <f>AC14/AC46</f>
+        <f>AC14/AC47</f>
         <v>0.85695451549110091</v>
       </c>
       <c r="AD23" s="1">
-        <f>AD16/AD46</f>
+        <f>AD16/AD47</f>
         <v>0.89775561097256862</v>
       </c>
       <c r="AE23" s="1">
-        <f>AE16/AE46</f>
+        <f>AE16/AE47</f>
         <v>0.92998955067920586</v>
       </c>
       <c r="AH23" s="1">
@@ -4227,11 +4227,11 @@
         <v>0.98743471564721719</v>
       </c>
       <c r="AS23" s="1">
-        <f>AS15/AS46</f>
+        <f>AS15/AS47</f>
         <v>0.89599999999999991</v>
       </c>
       <c r="AT23" s="1">
-        <f t="shared" ref="AT23:AX23" si="21">AT15/AT46</f>
+        <f t="shared" ref="AT23:AX23" si="21">AT15/AT47</f>
         <v>0.96299093655589119</v>
       </c>
       <c r="AU23" s="1">
@@ -4323,11 +4323,11 @@
         <v>0.98391099317271813</v>
       </c>
       <c r="BW23" s="1">
-        <f>BW19/BW46</f>
+        <f>BW19/BW47</f>
         <v>0.35307346326836581</v>
       </c>
       <c r="BX23" s="1">
-        <f t="shared" ref="BX23:CA23" si="24">BX19/BX46</f>
+        <f t="shared" ref="BX23:CA23" si="24">BX19/BX47</f>
         <v>0.42484342379958251</v>
       </c>
       <c r="BY23" s="1">
@@ -4343,11 +4343,11 @@
         <v>0.55017605633802824</v>
       </c>
       <c r="CD23" s="1">
-        <f>CD19/CD46</f>
+        <f>CD19/CD47</f>
         <v>0.7407407407407407</v>
       </c>
       <c r="CE23" s="1">
-        <f t="shared" ref="CE23:CH23" si="25">CE19/CE46</f>
+        <f t="shared" ref="CE23:CH23" si="25">CE19/CE47</f>
         <v>0.77608695652173909</v>
       </c>
       <c r="CF23" s="1">
@@ -4376,13 +4376,13 @@
       </c>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>73</v>
+      <c r="A25" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1">
         <v>0.12216299999999999</v>
@@ -4390,11 +4390,20 @@
       <c r="K26" s="1">
         <v>0.11446000000000001</v>
       </c>
+      <c r="L26" s="1">
+        <v>0.124349</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.124921</v>
+      </c>
       <c r="T26" s="1">
         <v>1.6355000000000001E-2</v>
       </c>
       <c r="AC26" s="1">
         <v>3.8887999999999999E-2</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>3.3673000000000002E-2</v>
       </c>
       <c r="AO26" s="1">
         <v>9.077E-3</v>
@@ -4417,7 +4426,7 @@
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1">
         <v>4.7864999999999998E-2</v>
@@ -4425,11 +4434,20 @@
       <c r="K27" s="1">
         <v>9.9329000000000001E-2</v>
       </c>
+      <c r="L27" s="1">
+        <v>0.18318499999999999</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.20289199999999999</v>
+      </c>
       <c r="T27" s="1">
         <v>0.83484100000000006</v>
       </c>
       <c r="AC27" s="1">
         <v>1.2660469999999999</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>17.413001999999999</v>
       </c>
       <c r="AO27" s="1">
         <v>2.7207530000000002</v>
@@ -4452,7 +4470,7 @@
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>0.10388</v>
@@ -4628,7 +4646,7 @@
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>2.4877E-2</v>
@@ -4804,7 +4822,7 @@
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>4.0368789999999999</v>
@@ -4989,7 +5007,7 @@
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1">
         <v>2.9932E-2</v>
@@ -5174,7 +5192,7 @@
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
         <v>3.6098629999999998</v>
@@ -5369,7 +5387,7 @@
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1">
         <v>3.0751000000000001E-2</v>
@@ -5563,7 +5581,7 @@
     </row>
     <row r="34" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B34" s="3">
         <v>2.6930000000000001E-3</v>
@@ -5740,7 +5758,7 @@
     </row>
     <row r="35" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P35" s="1">
         <v>0.43018600000000001</v>
@@ -5875,4296 +5893,4338 @@
         <v>0.227467</v>
       </c>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1">
         <v>0.99062499999999998</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <v>0.99876799999999999</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>0.99810200000000004</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>0.99359200000000003</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F37" s="1">
         <v>0.99371500000000001</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I37" s="1">
         <v>0.99698100000000001</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J37" s="1">
         <v>0.99512299999999998</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K37" s="1">
         <v>0.99982700000000002</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L37" s="1">
         <v>0.99934699999999999</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M37" s="1">
         <v>0.99953800000000004</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P37" s="1">
         <v>0.99081200000000003</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q37" s="1">
         <v>0.99022600000000005</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R37" s="1">
         <v>0.98910900000000002</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S37" s="1">
         <v>0.97603799999999996</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T37" s="1">
         <v>0.99021700000000001</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W37" s="1">
         <v>0.99710500000000002</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X37" s="1">
         <v>0.998722</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Y37" s="1">
         <v>0.99542299999999995</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AB37" s="1">
         <v>0.91002899999999998</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AC37" s="1">
         <v>0.99041199999999996</v>
       </c>
-      <c r="AD36" s="1">
+      <c r="AD37" s="1">
         <v>0.99315900000000001</v>
       </c>
-      <c r="AE36" s="1">
+      <c r="AE37" s="1">
         <v>0.95540499999999995</v>
       </c>
-      <c r="AH36" s="1">
+      <c r="AH37" s="1">
         <v>0.99771399999999999</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AI37" s="1">
         <v>0.99724500000000005</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AJ37" s="1">
         <v>0.99390500000000004</v>
       </c>
-      <c r="AM36" s="1">
+      <c r="AM37" s="1">
         <v>0.98702400000000001</v>
       </c>
-      <c r="AN36" s="1">
+      <c r="AN37" s="1">
         <v>0.99087899999999995</v>
       </c>
-      <c r="AO36" s="1">
+      <c r="AO37" s="1">
         <v>0.99360400000000004</v>
       </c>
-      <c r="AS36" s="1">
+      <c r="AS37" s="1">
         <v>0.98613499999999998</v>
       </c>
-      <c r="AT36" s="1">
+      <c r="AT37" s="1">
         <v>0.99909000000000003</v>
       </c>
-      <c r="AU36" s="1">
+      <c r="AU37" s="1">
         <v>0.99062399999999995</v>
       </c>
-      <c r="AV36" s="1">
+      <c r="AV37" s="1">
         <v>0.99835099999999999</v>
       </c>
-      <c r="AW36" s="1">
+      <c r="AW37" s="1">
         <v>0.99624900000000005</v>
       </c>
-      <c r="AX36" s="1">
+      <c r="AX37" s="1">
         <v>0.996008</v>
       </c>
-      <c r="BA36" s="1">
+      <c r="BA37" s="1">
         <v>0.99624100000000004</v>
       </c>
-      <c r="BB36" s="1">
+      <c r="BB37" s="1">
         <v>0.99957799999999997</v>
       </c>
-      <c r="BC36" s="1">
+      <c r="BC37" s="1">
         <v>0.99260300000000001</v>
       </c>
-      <c r="BD36" s="1">
+      <c r="BD37" s="1">
         <v>0.99746100000000004</v>
       </c>
-      <c r="BE36" s="1">
+      <c r="BE37" s="1">
         <v>0.99873299999999998</v>
       </c>
-      <c r="BF36" s="1">
+      <c r="BF37" s="1">
         <v>0.99774499999999999</v>
       </c>
-      <c r="BG36" s="1">
+      <c r="BG37" s="1">
         <v>0.99143800000000004</v>
       </c>
-      <c r="BH36" s="1">
+      <c r="BH37" s="1">
         <v>0.99741100000000005</v>
       </c>
-      <c r="BI36" s="1">
+      <c r="BI37" s="1">
         <v>0.99983699999999998</v>
       </c>
-      <c r="BL36" s="1">
+      <c r="BL37" s="1">
         <v>0.99895999999999996</v>
       </c>
-      <c r="BM36" s="1">
+      <c r="BM37" s="1">
         <v>0.996062</v>
       </c>
-      <c r="BN36" s="1">
+      <c r="BN37" s="1">
         <v>0.99912500000000004</v>
       </c>
-      <c r="BO36" s="1">
+      <c r="BO37" s="1">
         <v>0.99983299999999997</v>
       </c>
-      <c r="BP36" s="1">
+      <c r="BP37" s="1">
         <v>0.99993100000000001</v>
       </c>
-      <c r="BQ36" s="1">
+      <c r="BQ37" s="1">
         <v>0.99928899999999998</v>
       </c>
-      <c r="BR36" s="1">
+      <c r="BR37" s="1">
         <v>0.99719400000000002</v>
       </c>
-      <c r="BS36" s="1">
+      <c r="BS37" s="1">
         <v>0.99981100000000001</v>
       </c>
-      <c r="BT36" s="1">
+      <c r="BT37" s="1">
         <v>0.99992999999999999</v>
       </c>
-      <c r="BW36" s="1">
+      <c r="BW37" s="1">
         <v>0.99749900000000002</v>
       </c>
-      <c r="BX36" s="1">
+      <c r="BX37" s="1">
         <v>0.989927</v>
       </c>
-      <c r="BY36" s="1">
+      <c r="BY37" s="1">
         <v>0.98628499999999997</v>
       </c>
-      <c r="BZ36" s="1">
+      <c r="BZ37" s="1">
         <v>0.98334500000000002</v>
       </c>
-      <c r="CA36" s="1">
+      <c r="CA37" s="1">
         <v>0.97812699999999997</v>
       </c>
-      <c r="CD36" s="1">
+      <c r="CD37" s="1">
         <v>0.99803900000000001</v>
       </c>
-      <c r="CE36" s="1">
+      <c r="CE37" s="1">
         <v>0.99985400000000002</v>
       </c>
-      <c r="CF36" s="1">
+      <c r="CF37" s="1">
         <v>0.99975499999999995</v>
       </c>
-      <c r="CG36" s="1">
+      <c r="CG37" s="1">
         <v>0.99934599999999996</v>
       </c>
-      <c r="CH36" s="1">
+      <c r="CH37" s="1">
         <v>0.99930399999999997</v>
       </c>
-      <c r="CN36" s="1">
+      <c r="CN37" s="1">
         <v>0.97150599999999998</v>
       </c>
-      <c r="CO36" s="1">
+      <c r="CO37" s="1">
         <v>0.98424</v>
       </c>
-      <c r="CP36" s="1">
+      <c r="CP37" s="1">
         <v>0.98974600000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="I38" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="P38" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="W38" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="AB38" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AH38" s="5">
-        <v>1.46</v>
-      </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AM38" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="BV38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BW38" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="BX38" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="BY38" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="BZ38" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="CA38" s="1">
-        <v>0.81</v>
       </c>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1">
+        <v>24</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="I39" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="P39" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="W39" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="AB39" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AH39" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AM39" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="BV39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW39" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="BX39" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="BY39" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="BZ39" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="CA39" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:94" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
         <v>0.99051999999999996</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <v>0.99745200000000001</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>0.99810200000000004</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>0.98735200000000001</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F40" s="1">
         <v>0.98816800000000005</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I40" s="1">
         <v>0.99698100000000001</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J40" s="1">
         <v>0.99512299999999998</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K40" s="1">
         <v>0.99982700000000002</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L40" s="1">
         <v>0.99934699999999999</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M40" s="1">
         <v>0.99953800000000004</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W40" s="1">
         <v>0.99710500000000002</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X40" s="1">
         <v>0.998722</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Y40" s="1">
         <v>0.99542299999999995</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AB40" s="1">
         <v>0.90883899999999995</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AC40" s="1">
         <v>0.99041199999999996</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AD40" s="1">
         <v>0.95804299999999998</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AE40" s="1">
         <v>0.87024900000000005</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AH40" s="1">
         <v>0.99758500000000006</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AI40" s="1">
         <v>0.99672899999999998</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AJ40" s="1">
         <v>0.98918700000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="W42" s="3">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="X42" s="3">
-        <v>1.15E-2</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>1.12E-2</v>
-      </c>
-      <c r="AH42" s="3">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="AI42" s="3">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="AJ42" s="3">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="AM42" s="3">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="AN42" s="3">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="AO42" s="3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="AS42" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AT42" s="1">
-        <v>3.79</v>
-      </c>
-      <c r="AU42" s="1">
-        <v>1.96</v>
-      </c>
-      <c r="AV42" s="1">
-        <v>4.76</v>
-      </c>
-      <c r="AW42" s="1">
-        <v>5.36</v>
-      </c>
-      <c r="AX42" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="BA42" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BB42" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="BC42" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="BD42" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="BE42" s="1">
-        <v>3.38</v>
-      </c>
-      <c r="BF42" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="BG42" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="BH42" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="BI42" s="1">
-        <v>2.52</v>
-      </c>
-      <c r="BL42" s="1">
-        <v>3.66</v>
-      </c>
-      <c r="BM42" s="1">
-        <v>2.16</v>
-      </c>
-      <c r="BN42" s="1">
-        <v>1.64</v>
-      </c>
-      <c r="BO42" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="BP42" s="1">
-        <v>3.26</v>
-      </c>
-      <c r="BQ42" s="1">
-        <v>3.96</v>
-      </c>
-      <c r="BR42" s="1">
-        <v>3.56</v>
-      </c>
-      <c r="BS42" s="1">
-        <v>2.98</v>
-      </c>
-      <c r="BT42" s="1">
-        <v>4.26</v>
-      </c>
-      <c r="BW42" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="BX42" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="BY42" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="BZ42" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="CA42" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="CD42" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="CE42" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="CF42" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="CG42" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="CH42" s="1">
-        <v>0.15</v>
+      <c r="A42" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="W43" s="3">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1.15E-2</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>1.12E-2</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="AO43" s="3">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS43" s="1">
-        <v>5.62</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AT43" s="1">
-        <v>6.11</v>
+        <v>3.79</v>
       </c>
       <c r="AU43" s="1">
-        <v>7.23</v>
+        <v>1.96</v>
       </c>
       <c r="AV43" s="1">
-        <v>11.5</v>
+        <v>4.76</v>
       </c>
       <c r="AW43" s="1">
-        <v>15.71</v>
+        <v>5.36</v>
       </c>
       <c r="AX43" s="1">
-        <v>20.93</v>
+        <v>0.39</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BB43" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="BC43" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BD43" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="BE43" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="BF43" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="BG43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="BH43" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="BI43" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="BL43" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="BM43" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="BN43" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="BO43" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="BP43" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="BQ43" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="BR43" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="BS43" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="BT43" s="1">
+        <v>4.26</v>
       </c>
       <c r="BW43" s="1">
-        <v>57.24</v>
+        <v>0.18</v>
       </c>
       <c r="BX43" s="1">
-        <v>47.1</v>
+        <v>0.17</v>
       </c>
       <c r="BY43" s="1">
-        <v>39.15</v>
+        <v>0.17</v>
       </c>
       <c r="BZ43" s="1">
-        <v>34.14</v>
+        <v>0.17</v>
       </c>
       <c r="CA43" s="1">
-        <v>30.3</v>
+        <v>0.16</v>
       </c>
       <c r="CD43" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="CE43" s="1">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="CF43" s="1">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="CG43" s="1">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="CH43" s="1">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AS44" s="1">
-        <v>0.96499999999999997</v>
+        <v>5.62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.68899999999999995</v>
+        <v>6.11</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.65</v>
+        <v>7.23</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.52100000000000002</v>
+        <v>11.5</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.23699999999999999</v>
+        <v>15.71</v>
       </c>
       <c r="AX44" s="1">
-        <v>0.76200000000000001</v>
+        <v>20.93</v>
       </c>
       <c r="BW44" s="1">
-        <v>0.74</v>
+        <v>57.24</v>
       </c>
       <c r="BX44" s="1">
-        <v>0.77</v>
+        <v>47.1</v>
       </c>
       <c r="BY44" s="1">
-        <v>0.81</v>
+        <v>39.15</v>
       </c>
       <c r="BZ44" s="1">
-        <v>0.82</v>
+        <v>34.14</v>
       </c>
       <c r="CA44" s="1">
-        <v>0.85</v>
+        <v>30.3</v>
       </c>
       <c r="CD44" s="1">
-        <v>0.94</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="CE44" s="1">
-        <v>0.92</v>
+        <v>0.49</v>
       </c>
       <c r="CF44" s="1">
-        <v>0.96</v>
+        <v>0.46</v>
       </c>
       <c r="CG44" s="1">
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="CH44" s="1">
-        <v>0.94</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="AB45" s="3">
-        <v>0.42270000000000002</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>2.64E-2</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>1.11E-2</v>
-      </c>
-      <c r="AE45" s="3">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="AS45" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="AT45" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="AU45" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AV45" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AW45" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AX45" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="BA45" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="BB45" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="BC45" s="1">
+        <v>13</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="AV45" s="1">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="AW45" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AX45" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="BW45" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="BX45" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="BY45" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="BZ45" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="CA45" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="CD45" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="CE45" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="CF45" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="CG45" s="1">
         <v>0.93</v>
       </c>
-      <c r="BD45" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="BE45" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="BF45" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="BG45" s="1">
-        <v>2</v>
-      </c>
-      <c r="BH45" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BI45" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="BL45" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="BM45" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BN45" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="BO45" s="1">
-        <v>1.85</v>
-      </c>
-      <c r="BP45" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="BQ45" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="BR45" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="BS45" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="BT45" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="BW45" s="1">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="BX45" s="1">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="BY45" s="1">
-        <v>5.6999999999999998E-4</v>
-      </c>
-      <c r="BZ45" s="1">
-        <v>8.3000000000000001E-4</v>
-      </c>
-      <c r="CA45" s="1">
-        <v>1.0300000000000001E-3</v>
-      </c>
-      <c r="CD45" s="1">
-        <v>0.1396</v>
-      </c>
-      <c r="CE45" s="1">
-        <v>0.1958</v>
-      </c>
-      <c r="CF45" s="1">
-        <v>0.20519999999999999</v>
-      </c>
-      <c r="CG45" s="1">
-        <v>0.2737</v>
-      </c>
       <c r="CH45" s="1">
-        <v>0.3266</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>1.5169999999999999</v>
-      </c>
-      <c r="AD46" s="1">
-        <v>4.01</v>
-      </c>
-      <c r="AE46" s="1">
-        <v>9.57</v>
-      </c>
-      <c r="AS46" s="1">
-        <v>6.25</v>
-      </c>
-      <c r="AT46" s="1">
-        <v>6.62</v>
-      </c>
-      <c r="AU46" s="1">
-        <v>8.26</v>
-      </c>
-      <c r="AV46" s="1">
-        <v>12.66</v>
-      </c>
-      <c r="AW46" s="1">
-        <v>18.52</v>
-      </c>
-      <c r="AX46" s="1">
-        <v>23.8</v>
-      </c>
-      <c r="BW46" s="1">
-        <v>66.7</v>
-      </c>
-      <c r="BX46" s="1">
-        <v>47.9</v>
-      </c>
-      <c r="BY46" s="1">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="BZ46" s="1">
-        <v>31.6</v>
-      </c>
-      <c r="CA46" s="1">
-        <v>28.4</v>
-      </c>
-      <c r="CD46" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="CE46" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="CF46" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="CG46" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="CH46" s="1">
-        <v>0.35</v>
+        <v>62</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="AB46" s="3">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>2.64E-2</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>1.11E-2</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="AS46" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AT46" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="AU46" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AV46" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AW46" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX46" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="BA46" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="BB46" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="BC46" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="BD46" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="BE46" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="BF46" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="BG46" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH46" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BI46" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="BL46" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="BM46" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BN46" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="BO46" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="BP46" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BQ46" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="BR46" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="BS46" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="BT46" s="3">
+        <v>3.97</v>
+      </c>
+      <c r="BW46" s="3">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="BX46" s="3">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="BY46" s="3">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="BZ46" s="3">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="CA46" s="3">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="CD46" s="3">
+        <v>0.1396</v>
+      </c>
+      <c r="CE46" s="3">
+        <v>0.1958</v>
+      </c>
+      <c r="CF46" s="3">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="CG46" s="3">
+        <v>0.2737</v>
+      </c>
+      <c r="CH46" s="3">
+        <v>0.3266</v>
       </c>
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AB47" s="1">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>9.57</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>6.62</v>
+      </c>
+      <c r="AU47" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="AV47" s="1">
+        <v>12.66</v>
+      </c>
+      <c r="AW47" s="1">
+        <v>18.52</v>
+      </c>
+      <c r="AX47" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="BW47" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="BX47" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="BY47" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="BZ47" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="CA47" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="CD47" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="CE47" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="CF47" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="CG47" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="CH47" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:94" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB48" s="1">
         <v>0.99180000000000001</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AC48" s="1">
         <v>0.98240000000000005</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AD48" s="1">
         <v>0.99780000000000002</v>
       </c>
-      <c r="AE47" s="1">
+      <c r="AE48" s="1">
         <v>0.98729999999999996</v>
       </c>
-      <c r="AS47" s="1">
+      <c r="AS48" s="1">
         <v>0.99299999999999999</v>
       </c>
-      <c r="AT47" s="1">
+      <c r="AT48" s="1">
         <v>0.999</v>
       </c>
-      <c r="AU47" s="1">
+      <c r="AU48" s="1">
         <v>0.998</v>
       </c>
-      <c r="AV47" s="1">
+      <c r="AV48" s="1">
         <v>0.999</v>
       </c>
-      <c r="AW47" s="1">
+      <c r="AW48" s="1">
         <v>0.999</v>
       </c>
-      <c r="AX47" s="1">
+      <c r="AX48" s="1">
         <v>0.996</v>
       </c>
-      <c r="BW47" s="1">
+      <c r="BW48" s="1">
         <v>0.95</v>
       </c>
-      <c r="BX47" s="1">
+      <c r="BX48" s="1">
         <v>0.97</v>
       </c>
-      <c r="BY47" s="1">
+      <c r="BY48" s="1">
         <v>0.97</v>
       </c>
-      <c r="BZ47" s="1">
+      <c r="BZ48" s="1">
         <v>0.98</v>
       </c>
-      <c r="CA47" s="1">
+      <c r="CA48" s="1">
         <v>0.98</v>
       </c>
-      <c r="CD47" s="1">
+      <c r="CD48" s="1">
         <v>0.98</v>
       </c>
-      <c r="CE47" s="1">
+      <c r="CE48" s="1">
         <v>0.99</v>
       </c>
-      <c r="CF47" s="1">
+      <c r="CF48" s="1">
         <v>0.99</v>
       </c>
-      <c r="CG47" s="1">
+      <c r="CG48" s="1">
         <v>1</v>
       </c>
-      <c r="CH47" s="1">
+      <c r="CH48" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1.5349E-2</v>
-      </c>
-      <c r="K50" s="1">
-        <v>8.4980000000000003E-3</v>
-      </c>
-      <c r="T50" s="1">
-        <v>2.3140000000000001E-3</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>6.4289999999999998E-3</v>
-      </c>
-      <c r="AO50" s="1">
-        <v>1.124E-3</v>
-      </c>
-      <c r="BA50" s="1">
-        <v>6.7514000000000005E-2</v>
-      </c>
-      <c r="CD50" s="1">
-        <v>8.8009999999999998E-3</v>
-      </c>
-      <c r="CE50" s="1">
-        <v>1.2524E-2</v>
-      </c>
-      <c r="CF50" s="1">
-        <v>7.0590000000000002E-3</v>
-      </c>
-      <c r="CG50" s="1">
-        <v>1.4318000000000001E-2</v>
+      <c r="A50" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="J51" s="1">
-        <v>7.6949999999999996E-3</v>
+        <v>1.5349E-2</v>
       </c>
       <c r="K51" s="1">
-        <v>5.6439999999999997E-3</v>
+        <v>8.4980000000000003E-3</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1.9591000000000001E-2</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2.0563000000000001E-2</v>
       </c>
       <c r="T51" s="1">
-        <v>0.19626099999999999</v>
+        <v>2.3140000000000001E-3</v>
       </c>
       <c r="AC51" s="1">
-        <v>0.35898799999999997</v>
+        <v>6.4289999999999998E-3</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>6.3699999999999998E-3</v>
       </c>
       <c r="AO51" s="1">
-        <v>0.43609799999999999</v>
+        <v>1.124E-3</v>
       </c>
       <c r="BA51" s="1">
-        <v>3.9432000000000002E-2</v>
+        <v>6.7514000000000005E-2</v>
       </c>
       <c r="CD51" s="1">
-        <v>2.2726E-2</v>
+        <v>8.8009999999999998E-3</v>
       </c>
       <c r="CE51" s="1">
-        <v>3.8018999999999997E-2</v>
+        <v>1.2524E-2</v>
       </c>
       <c r="CF51" s="1">
-        <v>9.587E-3</v>
+        <v>7.0590000000000002E-3</v>
       </c>
       <c r="CG51" s="1">
-        <v>4.3217999999999999E-2</v>
+        <v>1.4318000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1.3247E-2</v>
-      </c>
-      <c r="C52" s="1">
-        <v>6.6309999999999997E-3</v>
-      </c>
-      <c r="D52" s="1">
-        <v>5.5139999999999998E-3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.6434000000000001E-2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.6427000000000001E-2</v>
-      </c>
-      <c r="I52" s="1">
-        <v>8.8109999999999994E-3</v>
+        <v>61</v>
       </c>
       <c r="J52" s="1">
-        <v>1.1103E-2</v>
+        <v>7.6949999999999996E-3</v>
       </c>
       <c r="K52" s="1">
-        <v>1.9250000000000001E-3</v>
+        <v>5.6439999999999997E-3</v>
       </c>
       <c r="L52" s="1">
-        <v>3.3739999999999998E-3</v>
+        <v>4.5569999999999999E-2</v>
       </c>
       <c r="M52" s="1">
-        <v>3.4250000000000001E-3</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>1.957E-3</v>
-      </c>
-      <c r="R52" s="1">
-        <v>1.9250000000000001E-3</v>
+        <v>4.1396000000000002E-2</v>
       </c>
       <c r="T52" s="1">
-        <v>2.3779999999999999E-3</v>
-      </c>
-      <c r="W52" s="1">
-        <v>1.034E-3</v>
-      </c>
-      <c r="X52" s="1">
-        <v>7.2400000000000003E-4</v>
-      </c>
-      <c r="Y52" s="1">
-        <v>1.0989999999999999E-3</v>
+        <v>0.19626099999999999</v>
       </c>
       <c r="AC52" s="1">
-        <v>6.0109999999999999E-3</v>
+        <v>0.35898799999999997</v>
       </c>
       <c r="AH52" s="1">
-        <v>1.7979999999999999E-3</v>
-      </c>
-      <c r="AI52" s="1">
-        <v>2.1949999999999999E-3</v>
-      </c>
-      <c r="AJ52" s="1">
-        <v>2.895E-3</v>
-      </c>
-      <c r="AM52" s="1">
-        <v>2.0219999999999999E-3</v>
-      </c>
-      <c r="AN52" s="1">
-        <v>1.036E-3</v>
+        <v>3.5364059999999999</v>
       </c>
       <c r="AO52" s="1">
-        <v>9.7000000000000005E-4</v>
-      </c>
-      <c r="AS52" s="1">
-        <v>2.2398999999999999E-2</v>
-      </c>
-      <c r="AT52" s="1">
-        <v>0.12840199999999999</v>
-      </c>
-      <c r="AU52" s="1">
-        <v>0.215388</v>
-      </c>
-      <c r="AV52" s="1">
-        <v>0.13545499999999999</v>
-      </c>
-      <c r="AW52" s="1">
-        <v>9.3964000000000006E-2</v>
-      </c>
-      <c r="AX52" s="1">
-        <v>2.6415999999999999E-2</v>
+        <v>0.43609799999999999</v>
       </c>
       <c r="BA52" s="1">
-        <v>5.8396000000000003E-2</v>
-      </c>
-      <c r="BB52" s="1">
-        <v>0.11215899999999999</v>
-      </c>
-      <c r="BD52" s="1">
-        <v>1.124738</v>
-      </c>
-      <c r="BE52" s="1">
-        <v>0.87087499999999995</v>
-      </c>
-      <c r="BF52" s="1">
-        <v>0.73483799999999999</v>
-      </c>
-      <c r="BG52" s="1">
-        <v>0.39807399999999998</v>
-      </c>
-      <c r="BH52" s="1">
-        <v>0.45813900000000002</v>
-      </c>
-      <c r="BI52" s="1">
-        <v>0.45871899999999999</v>
-      </c>
-      <c r="BL52" s="1">
-        <v>0.34223500000000001</v>
-      </c>
-      <c r="BM52" s="1">
-        <v>0.30923</v>
-      </c>
-      <c r="BN52" s="1">
-        <v>0.264434</v>
-      </c>
-      <c r="BO52" s="1">
-        <v>0.46968900000000002</v>
-      </c>
-      <c r="BP52" s="1">
-        <v>0.60135899999999998</v>
-      </c>
-      <c r="BQ52" s="1">
-        <v>0.26750299999999999</v>
-      </c>
-      <c r="BR52" s="1">
-        <v>1.292122</v>
-      </c>
-      <c r="BS52" s="1">
-        <v>0.49082999999999999</v>
-      </c>
-      <c r="BT52" s="1">
-        <v>0.470636</v>
-      </c>
-      <c r="BW52" s="1">
-        <v>3.7429999999999998E-3</v>
-      </c>
-      <c r="BX52" s="1">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="BY52" s="1">
-        <v>8.1399999999999997E-3</v>
-      </c>
-      <c r="BZ52" s="1">
-        <v>9.6989999999999993E-3</v>
-      </c>
-      <c r="CA52" s="1">
-        <v>1.294E-2</v>
+        <v>3.9432000000000002E-2</v>
       </c>
       <c r="CD52" s="1">
-        <v>4.4970000000000001E-3</v>
+        <v>2.2726E-2</v>
       </c>
       <c r="CE52" s="1">
-        <v>1.4009999999999999E-3</v>
+        <v>3.8018999999999997E-2</v>
       </c>
       <c r="CF52" s="1">
-        <v>1.8090000000000001E-3</v>
+        <v>9.587E-3</v>
       </c>
       <c r="CG52" s="1">
-        <v>2.8010000000000001E-3</v>
-      </c>
-      <c r="CH52" s="1">
-        <v>3.3519999999999999E-3</v>
-      </c>
-      <c r="CN52" s="1">
-        <v>3.6389999999999999E-3</v>
+        <v>4.3217999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1">
-        <v>8.7699999999999996E-4</v>
+        <v>1.3247E-2</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0560000000000001E-3</v>
+        <v>6.6309999999999997E-3</v>
       </c>
       <c r="D53" s="1">
-        <v>2.3010000000000001E-3</v>
+        <v>5.5139999999999998E-3</v>
       </c>
       <c r="E53" s="1">
-        <v>9.9880000000000004E-3</v>
+        <v>1.6434000000000001E-2</v>
       </c>
       <c r="F53" s="1">
-        <v>9.5429999999999994E-3</v>
+        <v>1.6427000000000001E-2</v>
       </c>
       <c r="I53" s="1">
-        <v>4.26E-4</v>
+        <v>8.8109999999999994E-3</v>
       </c>
       <c r="J53" s="1">
-        <v>1.286E-3</v>
+        <v>1.1103E-2</v>
       </c>
       <c r="K53" s="1">
-        <v>5.1699999999999999E-4</v>
+        <v>1.9250000000000001E-3</v>
       </c>
       <c r="L53" s="1">
-        <v>1.688E-3</v>
+        <v>3.3739999999999998E-3</v>
       </c>
       <c r="M53" s="1">
-        <v>1.7409999999999999E-3</v>
+        <v>3.4250000000000001E-3</v>
       </c>
       <c r="Q53" s="1">
-        <v>3.0394000000000001E-2</v>
+        <v>1.957E-3</v>
       </c>
       <c r="R53" s="1">
-        <v>3.2468999999999998E-2</v>
+        <v>1.9250000000000001E-3</v>
       </c>
       <c r="T53" s="1">
-        <v>3.8150000000000003E-2</v>
+        <v>2.3779999999999999E-3</v>
       </c>
       <c r="W53" s="1">
-        <v>0.27872799999999998</v>
+        <v>1.034E-3</v>
       </c>
       <c r="X53" s="1">
-        <v>0.229355</v>
+        <v>7.2400000000000003E-4</v>
       </c>
       <c r="Y53" s="1">
-        <v>0.62648099999999995</v>
+        <v>1.0989999999999999E-3</v>
       </c>
       <c r="AC53" s="1">
-        <v>9.0495999999999993E-2</v>
+        <v>6.0109999999999999E-3</v>
       </c>
       <c r="AH53" s="1">
-        <v>0.29091899999999998</v>
+        <v>1.7979999999999999E-3</v>
       </c>
       <c r="AI53" s="1">
-        <v>0.68217499999999998</v>
+        <v>2.1949999999999999E-3</v>
       </c>
       <c r="AJ53" s="1">
-        <v>1.45909</v>
+        <v>2.895E-3</v>
       </c>
       <c r="AM53" s="1">
-        <v>6.3999E-2</v>
+        <v>2.0219999999999999E-3</v>
       </c>
       <c r="AN53" s="1">
-        <v>6.0152999999999998E-2</v>
+        <v>1.036E-3</v>
       </c>
       <c r="AO53" s="1">
-        <v>8.6038000000000003E-2</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="AS53" s="1">
-        <v>0.32560099999999997</v>
+        <v>2.2398999999999999E-2</v>
       </c>
       <c r="AT53" s="1">
-        <v>0.145616</v>
+        <v>0.12840199999999999</v>
       </c>
       <c r="AU53" s="1">
-        <v>0.30460100000000001</v>
+        <v>0.215388</v>
       </c>
       <c r="AV53" s="1">
-        <v>0.24331900000000001</v>
+        <v>0.13545499999999999</v>
       </c>
       <c r="AW53" s="1">
-        <v>0.65495300000000001</v>
+        <v>9.3964000000000006E-2</v>
       </c>
       <c r="AX53" s="1">
-        <v>0.60217900000000002</v>
+        <v>2.6415999999999999E-2</v>
       </c>
       <c r="BA53" s="1">
-        <v>9.1269999999999997E-3</v>
+        <v>5.8396000000000003E-2</v>
       </c>
       <c r="BB53" s="1">
-        <v>3.5478999999999997E-2</v>
+        <v>0.11215899999999999</v>
       </c>
       <c r="BD53" s="1">
-        <v>0.1464</v>
+        <v>1.124738</v>
       </c>
       <c r="BE53" s="1">
-        <v>0.16592999999999999</v>
+        <v>0.87087499999999995</v>
       </c>
       <c r="BF53" s="1">
-        <v>0.26399800000000001</v>
+        <v>0.73483799999999999</v>
       </c>
       <c r="BG53" s="1">
-        <v>5.9230999999999999E-2</v>
+        <v>0.39807399999999998</v>
       </c>
       <c r="BH53" s="1">
-        <v>0.13576299999999999</v>
+        <v>0.45813900000000002</v>
       </c>
       <c r="BI53" s="1">
-        <v>0.21252099999999999</v>
+        <v>0.45871899999999999</v>
       </c>
       <c r="BL53" s="1">
-        <v>5.7739999999999996E-3</v>
+        <v>0.34223500000000001</v>
       </c>
       <c r="BM53" s="1">
-        <v>2.3269999999999999E-2</v>
+        <v>0.30923</v>
       </c>
       <c r="BN53" s="1">
-        <v>4.9877999999999999E-2</v>
+        <v>0.264434</v>
       </c>
       <c r="BO53" s="1">
-        <v>8.3062999999999998E-2</v>
+        <v>0.46968900000000002</v>
       </c>
       <c r="BP53" s="1">
-        <v>7.7044000000000001E-2</v>
+        <v>0.60135899999999998</v>
       </c>
       <c r="BQ53" s="1">
-        <v>2.7611E-2</v>
+        <v>0.26750299999999999</v>
       </c>
       <c r="BR53" s="1">
-        <v>3.6305999999999998E-2</v>
+        <v>1.292122</v>
       </c>
       <c r="BS53" s="1">
-        <v>6.7284999999999998E-2</v>
+        <v>0.49082999999999999</v>
       </c>
       <c r="BT53" s="1">
-        <v>3.5521999999999998E-2</v>
+        <v>0.470636</v>
       </c>
       <c r="BW53" s="1">
-        <v>3.2248570000000001</v>
+        <v>3.7429999999999998E-3</v>
       </c>
       <c r="BX53" s="1">
-        <v>3.2444480000000002</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="BY53" s="1">
-        <v>2.6082869999999998</v>
+        <v>8.1399999999999997E-3</v>
       </c>
       <c r="BZ53" s="1">
-        <v>2.1692830000000001</v>
+        <v>9.6989999999999993E-3</v>
       </c>
       <c r="CA53" s="1">
-        <v>2.248691</v>
+        <v>1.294E-2</v>
       </c>
       <c r="CD53" s="1">
-        <v>6.8770000000000003E-3</v>
+        <v>4.4970000000000001E-3</v>
       </c>
       <c r="CE53" s="1">
-        <v>1.9980000000000002E-3</v>
+        <v>1.4009999999999999E-3</v>
       </c>
       <c r="CF53" s="1">
-        <v>2.1840000000000002E-3</v>
+        <v>1.8090000000000001E-3</v>
       </c>
       <c r="CG53" s="1">
-        <v>3.2200000000000002E-3</v>
+        <v>2.8010000000000001E-3</v>
       </c>
       <c r="CH53" s="1">
-        <v>3.0230000000000001E-3</v>
+        <v>3.3519999999999999E-3</v>
       </c>
       <c r="CN53" s="1">
-        <v>0.22356799999999999</v>
+        <v>3.6389999999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1">
-        <v>1.318039</v>
+        <v>8.7699999999999996E-4</v>
       </c>
       <c r="C54" s="1">
-        <v>0.16612299999999999</v>
+        <v>1.0560000000000001E-3</v>
       </c>
       <c r="D54" s="1">
-        <v>0.15406</v>
+        <v>2.3010000000000001E-3</v>
       </c>
       <c r="E54" s="1">
-        <v>0.111994</v>
+        <v>9.9880000000000004E-3</v>
       </c>
       <c r="F54" s="1">
-        <v>0.119619</v>
+        <v>9.5429999999999994E-3</v>
       </c>
       <c r="I54" s="1">
-        <v>1.5763050000000001</v>
+        <v>4.26E-4</v>
       </c>
       <c r="J54" s="1">
-        <v>0.69358200000000003</v>
+        <v>1.286E-3</v>
       </c>
       <c r="K54" s="1">
-        <v>0.20293600000000001</v>
+        <v>5.1699999999999999E-4</v>
       </c>
       <c r="L54" s="1">
-        <v>0.100568</v>
+        <v>1.688E-3</v>
       </c>
       <c r="M54" s="1">
-        <v>0.101533</v>
-      </c>
-      <c r="P54" s="1">
-        <v>2.2584E-2</v>
+        <v>1.7409999999999999E-3</v>
       </c>
       <c r="Q54" s="1">
-        <v>5.3579999999999999E-3</v>
+        <v>3.0394000000000001E-2</v>
       </c>
       <c r="R54" s="1">
-        <v>5.4060000000000002E-3</v>
-      </c>
-      <c r="S54" s="1">
-        <v>6.7539999999999996E-3</v>
+        <v>3.2468999999999998E-2</v>
       </c>
       <c r="T54" s="1">
-        <v>4.816E-3</v>
+        <v>3.8150000000000003E-2</v>
       </c>
       <c r="W54" s="1">
-        <v>2.1800000000000001E-4</v>
+        <v>0.27872799999999998</v>
       </c>
       <c r="X54" s="1">
-        <v>7.8999999999999996E-5</v>
+        <v>0.229355</v>
       </c>
       <c r="Y54" s="1">
-        <v>9.3999999999999994E-5</v>
+        <v>0.62648099999999995</v>
       </c>
       <c r="AC54" s="1">
-        <v>1.1672E-2</v>
-      </c>
-      <c r="AD54" s="1">
-        <v>3.1770000000000001E-3</v>
+        <v>9.0495999999999993E-2</v>
       </c>
       <c r="AH54" s="1">
-        <v>3.1E-4</v>
+        <v>0.29091899999999998</v>
       </c>
       <c r="AI54" s="1">
-        <v>1.22E-4</v>
+        <v>0.68217499999999998</v>
       </c>
       <c r="AJ54" s="1">
-        <v>1.5699999999999999E-4</v>
+        <v>1.45909</v>
       </c>
       <c r="AM54" s="1">
-        <v>1.9319999999999999E-3</v>
+        <v>6.3999E-2</v>
       </c>
       <c r="AN54" s="1">
-        <v>1.2979999999999999E-3</v>
+        <v>6.0152999999999998E-2</v>
       </c>
       <c r="AO54" s="1">
-        <v>7.2900000000000005E-4</v>
+        <v>8.6038000000000003E-2</v>
       </c>
       <c r="AS54" s="1">
-        <v>7.3990000000000002E-3</v>
+        <v>0.32560099999999997</v>
       </c>
       <c r="AT54" s="1">
-        <v>5.4359999999999999E-2</v>
+        <v>0.145616</v>
+      </c>
+      <c r="AU54" s="1">
+        <v>0.30460100000000001</v>
       </c>
       <c r="AV54" s="1">
-        <v>9.2559000000000002E-2</v>
+        <v>0.24331900000000001</v>
       </c>
       <c r="AW54" s="1">
-        <v>1.6787E-2</v>
+        <v>0.65495300000000001</v>
       </c>
       <c r="AX54" s="1">
-        <v>3.5049999999999999E-3</v>
+        <v>0.60217900000000002</v>
       </c>
       <c r="BA54" s="1">
-        <v>0.59734299999999996</v>
+        <v>9.1269999999999997E-3</v>
       </c>
       <c r="BB54" s="1">
-        <v>7.5092999999999993E-2</v>
-      </c>
-      <c r="BC54" s="1">
-        <v>0.28093200000000002</v>
+        <v>3.5478999999999997E-2</v>
       </c>
       <c r="BD54" s="1">
-        <v>1.194002</v>
+        <v>0.1464</v>
       </c>
       <c r="BE54" s="1">
-        <v>0.74714000000000003</v>
+        <v>0.16592999999999999</v>
       </c>
       <c r="BF54" s="1">
-        <v>0.54313800000000001</v>
+        <v>0.26399800000000001</v>
       </c>
       <c r="BG54" s="1">
-        <v>0.60306899999999997</v>
+        <v>5.9230999999999999E-2</v>
       </c>
       <c r="BH54" s="1">
-        <v>0.32883400000000002</v>
+        <v>0.13576299999999999</v>
       </c>
       <c r="BI54" s="1">
-        <v>9.1229000000000005E-2</v>
+        <v>0.21252099999999999</v>
       </c>
       <c r="BL54" s="1">
-        <v>7.8667090000000002</v>
+        <v>5.7739999999999996E-3</v>
       </c>
       <c r="BM54" s="1">
-        <v>1.3046599999999999</v>
+        <v>2.3269999999999999E-2</v>
       </c>
       <c r="BN54" s="1">
-        <v>0.18574599999999999</v>
+        <v>4.9877999999999999E-2</v>
       </c>
       <c r="BO54" s="1">
-        <v>0.18593799999999999</v>
+        <v>8.3062999999999998E-2</v>
       </c>
       <c r="BP54" s="1">
-        <v>0.23951</v>
+        <v>7.7044000000000001E-2</v>
       </c>
       <c r="BQ54" s="1">
-        <v>10.141503</v>
+        <v>2.7611E-2</v>
       </c>
       <c r="BR54" s="1">
-        <v>9.1512729999999998</v>
+        <v>3.6305999999999998E-2</v>
       </c>
       <c r="BS54" s="1">
-        <v>0.26796199999999998</v>
+        <v>6.7284999999999998E-2</v>
       </c>
       <c r="BT54" s="1">
-        <v>3.4120180000000002</v>
+        <v>3.5521999999999998E-2</v>
       </c>
       <c r="BW54" s="1">
-        <v>4.1149999999999997E-3</v>
+        <v>3.2248570000000001</v>
       </c>
       <c r="BX54" s="1">
-        <v>6.5069999999999998E-3</v>
+        <v>3.2444480000000002</v>
       </c>
       <c r="BY54" s="1">
-        <v>1.0538E-2</v>
+        <v>2.6082869999999998</v>
       </c>
       <c r="BZ54" s="1">
-        <v>9.2370000000000004E-3</v>
+        <v>2.1692830000000001</v>
+      </c>
+      <c r="CA54" s="1">
+        <v>2.248691</v>
       </c>
       <c r="CD54" s="1">
-        <v>0.11842900000000001</v>
+        <v>6.8770000000000003E-3</v>
       </c>
       <c r="CE54" s="1">
-        <v>7.7592999999999995E-2</v>
+        <v>1.9980000000000002E-3</v>
       </c>
       <c r="CF54" s="1">
-        <v>0.10058499999999999</v>
+        <v>2.1840000000000002E-3</v>
       </c>
       <c r="CG54" s="1">
-        <v>8.9292999999999997E-2</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="CH54" s="1">
-        <v>0.116554</v>
-      </c>
-      <c r="CO54" s="1">
-        <v>5.9837000000000001E-2</v>
-      </c>
-      <c r="CP54" s="1">
-        <v>0.24426500000000001</v>
+        <v>3.0230000000000001E-3</v>
+      </c>
+      <c r="CN54" s="1">
+        <v>0.22356799999999999</v>
       </c>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B55" s="1">
-        <v>2.3010000000000001E-3</v>
+        <v>1.318039</v>
       </c>
       <c r="C55" s="1">
-        <v>1.606E-3</v>
+        <v>0.16612299999999999</v>
       </c>
       <c r="D55" s="1">
-        <v>7.8729999999999998E-3</v>
+        <v>0.15406</v>
       </c>
       <c r="E55" s="1">
-        <v>1.3743999999999999E-2</v>
+        <v>0.111994</v>
       </c>
       <c r="F55" s="1">
-        <v>1.6778000000000001E-2</v>
+        <v>0.119619</v>
       </c>
       <c r="I55" s="1">
-        <v>1.5100000000000001E-3</v>
+        <v>1.5763050000000001</v>
       </c>
       <c r="J55" s="1">
-        <v>5.1110000000000001E-3</v>
+        <v>0.69358200000000003</v>
       </c>
       <c r="K55" s="1">
-        <v>6.4819999999999999E-3</v>
+        <v>0.20293600000000001</v>
       </c>
       <c r="L55" s="1">
-        <v>1.0454E-2</v>
+        <v>0.100568</v>
       </c>
       <c r="M55" s="1">
-        <v>1.0508E-2</v>
+        <v>0.101533</v>
       </c>
       <c r="P55" s="1">
-        <v>1.4756E-2</v>
+        <v>2.2584E-2</v>
       </c>
       <c r="Q55" s="1">
-        <v>5.2547999999999997E-2</v>
+        <v>5.3579999999999999E-3</v>
       </c>
       <c r="R55" s="1">
-        <v>7.5550999999999993E-2</v>
+        <v>5.4060000000000002E-3</v>
       </c>
       <c r="S55" s="1">
-        <v>0.15526400000000001</v>
+        <v>6.7539999999999996E-3</v>
       </c>
       <c r="T55" s="1">
-        <v>5.9665000000000003E-2</v>
+        <v>4.816E-3</v>
       </c>
       <c r="W55" s="1">
-        <v>1.674409</v>
+        <v>2.1800000000000001E-4</v>
       </c>
       <c r="X55" s="1">
-        <v>0.47715099999999999</v>
+        <v>7.8999999999999996E-5</v>
       </c>
       <c r="Y55" s="1">
-        <v>2.1626859999999999</v>
+        <v>9.3999999999999994E-5</v>
       </c>
       <c r="AC55" s="1">
-        <v>0.36794100000000002</v>
+        <v>1.1672E-2</v>
       </c>
       <c r="AD55" s="1">
-        <v>0.19013099999999999</v>
+        <v>3.1770000000000001E-3</v>
       </c>
       <c r="AH55" s="1">
-        <v>1.392679</v>
+        <v>3.1E-4</v>
       </c>
       <c r="AI55" s="1">
-        <v>1.584859</v>
+        <v>1.22E-4</v>
       </c>
       <c r="AJ55" s="1">
-        <v>2.8778250000000001</v>
+        <v>1.5699999999999999E-4</v>
       </c>
       <c r="AM55" s="1">
-        <v>9.5467999999999997E-2</v>
+        <v>1.9319999999999999E-3</v>
       </c>
       <c r="AN55" s="1">
-        <v>0.15166399999999999</v>
+        <v>1.2979999999999999E-3</v>
       </c>
       <c r="AO55" s="1">
-        <v>0.15764</v>
+        <v>7.2900000000000005E-4</v>
       </c>
       <c r="AS55" s="1">
-        <v>0.47414099999999998</v>
+        <v>7.3990000000000002E-3</v>
       </c>
       <c r="AT55" s="1">
-        <v>9.7154000000000004E-2</v>
+        <v>5.4359999999999999E-2</v>
       </c>
       <c r="AV55" s="1">
-        <v>0.28982599999999997</v>
+        <v>9.2559000000000002E-2</v>
       </c>
       <c r="AW55" s="1">
-        <v>0.53390400000000005</v>
+        <v>1.6787E-2</v>
       </c>
       <c r="AX55" s="1">
-        <v>1.1871609999999999</v>
+        <v>3.5049999999999999E-3</v>
       </c>
       <c r="BA55" s="1">
-        <v>3.7444999999999999E-2</v>
+        <v>0.59734299999999996</v>
       </c>
       <c r="BB55" s="1">
-        <v>1.4723E-2</v>
+        <v>7.5092999999999993E-2</v>
       </c>
       <c r="BC55" s="1">
-        <v>0.113515</v>
+        <v>0.28093200000000002</v>
       </c>
       <c r="BD55" s="1">
-        <v>0.21665899999999999</v>
+        <v>1.194002</v>
       </c>
       <c r="BE55" s="1">
-        <v>0.16983599999999999</v>
+        <v>0.74714000000000003</v>
       </c>
       <c r="BF55" s="1">
-        <v>0.33893800000000002</v>
+        <v>0.54313800000000001</v>
       </c>
       <c r="BG55" s="1">
-        <v>6.8250000000000005E-2</v>
+        <v>0.60306899999999997</v>
       </c>
       <c r="BH55" s="1">
-        <v>0.105235</v>
+        <v>0.32883400000000002</v>
       </c>
       <c r="BI55" s="1">
-        <v>8.4831000000000004E-2</v>
+        <v>9.1229000000000005E-2</v>
       </c>
       <c r="BL55" s="1">
-        <v>9.979E-3</v>
+        <v>7.8667090000000002</v>
       </c>
       <c r="BM55" s="1">
-        <v>2.9003999999999999E-2</v>
+        <v>1.3046599999999999</v>
       </c>
       <c r="BN55" s="1">
-        <v>3.3050000000000003E-2</v>
+        <v>0.18574599999999999</v>
       </c>
       <c r="BO55" s="1">
-        <v>2.1111000000000001E-2</v>
+        <v>0.18593799999999999</v>
       </c>
       <c r="BP55" s="1">
-        <v>2.0999E-2</v>
+        <v>0.23951</v>
       </c>
       <c r="BQ55" s="1">
-        <v>8.9251999999999998E-2</v>
+        <v>10.141503</v>
       </c>
       <c r="BR55" s="1">
-        <v>7.1253999999999998E-2</v>
+        <v>9.1512729999999998</v>
       </c>
       <c r="BS55" s="1">
-        <v>1.9539999999999998E-2</v>
+        <v>0.26796199999999998</v>
       </c>
       <c r="BT55" s="1">
-        <v>5.5060999999999999E-2</v>
+        <v>3.4120180000000002</v>
       </c>
       <c r="BW55" s="1">
-        <v>125.39272699999999</v>
+        <v>4.1149999999999997E-3</v>
       </c>
       <c r="BX55" s="1">
-        <v>78.847384000000005</v>
+        <v>6.5069999999999998E-3</v>
       </c>
       <c r="BY55" s="1">
-        <v>107.22465699999999</v>
+        <v>1.0538E-2</v>
       </c>
       <c r="BZ55" s="1">
-        <v>61.610674000000003</v>
+        <v>9.2370000000000004E-3</v>
       </c>
       <c r="CD55" s="1">
-        <v>0.39241399999999999</v>
+        <v>0.11842900000000001</v>
       </c>
       <c r="CE55" s="1">
-        <v>5.8716999999999998E-2</v>
+        <v>7.7592999999999995E-2</v>
       </c>
       <c r="CF55" s="1">
-        <v>5.8601E-2</v>
+        <v>0.10058499999999999</v>
       </c>
       <c r="CG55" s="1">
-        <v>2.7574000000000001E-2</v>
+        <v>8.9292999999999997E-2</v>
       </c>
       <c r="CH55" s="1">
-        <v>3.7751E-2</v>
+        <v>0.116554</v>
       </c>
       <c r="CO55" s="1">
-        <v>2.9153999999999999E-2</v>
+        <v>5.9837000000000001E-2</v>
       </c>
       <c r="CP55" s="1">
-        <v>1.0078E-2</v>
+        <v>0.24426500000000001</v>
       </c>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1">
-        <v>1.430852</v>
+        <v>2.3010000000000001E-3</v>
       </c>
       <c r="C56" s="1">
-        <v>0.16215499999999999</v>
+        <v>1.606E-3</v>
       </c>
       <c r="D56" s="1">
-        <v>0.151449</v>
+        <v>7.8729999999999998E-3</v>
       </c>
       <c r="E56" s="1">
-        <v>0.102171</v>
+        <v>1.3743999999999999E-2</v>
       </c>
       <c r="F56" s="1">
-        <v>0.10063</v>
+        <v>1.6778000000000001E-2</v>
       </c>
       <c r="I56" s="1">
-        <v>1.158838</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="J56" s="1">
-        <v>0.67320400000000002</v>
+        <v>5.1110000000000001E-3</v>
       </c>
       <c r="K56" s="1">
-        <v>0.19900899999999999</v>
+        <v>6.4819999999999999E-3</v>
       </c>
       <c r="L56" s="1">
-        <v>9.7605999999999998E-2</v>
+        <v>1.0454E-2</v>
       </c>
       <c r="M56" s="1">
-        <v>7.6760999999999996E-2</v>
+        <v>1.0508E-2</v>
       </c>
       <c r="P56" s="1">
-        <v>1.9022000000000001E-2</v>
+        <v>1.4756E-2</v>
       </c>
       <c r="Q56" s="1">
-        <v>5.0359999999999997E-3</v>
+        <v>5.2547999999999997E-2</v>
       </c>
       <c r="R56" s="1">
-        <v>3.7829999999999999E-3</v>
+        <v>7.5550999999999993E-2</v>
       </c>
       <c r="S56" s="1">
-        <v>4.2900000000000004E-3</v>
+        <v>0.15526400000000001</v>
       </c>
       <c r="T56" s="1">
-        <v>3.565E-3</v>
+        <v>5.9665000000000003E-2</v>
       </c>
       <c r="W56" s="1">
-        <v>1.8699999999999999E-4</v>
+        <v>1.674409</v>
       </c>
       <c r="X56" s="1">
-        <v>6.7999999999999999E-5</v>
+        <v>0.47715099999999999</v>
       </c>
       <c r="Y56" s="1">
-        <v>7.4999999999999993E-5</v>
+        <v>2.1626859999999999</v>
       </c>
       <c r="AC56" s="1">
-        <v>9.3930000000000003E-3</v>
+        <v>0.36794100000000002</v>
       </c>
       <c r="AD56" s="1">
-        <v>2.8010000000000001E-3</v>
+        <v>0.19013099999999999</v>
       </c>
       <c r="AH56" s="1">
-        <v>1.83E-4</v>
+        <v>1.392679</v>
       </c>
       <c r="AI56" s="1">
-        <v>9.0000000000000006E-5</v>
+        <v>1.584859</v>
       </c>
       <c r="AJ56" s="1">
-        <v>8.7999999999999998E-5</v>
+        <v>2.8778250000000001</v>
       </c>
       <c r="AM56" s="1">
-        <v>1.8619999999999999E-3</v>
+        <v>9.5467999999999997E-2</v>
       </c>
       <c r="AN56" s="1">
-        <v>1.039E-3</v>
+        <v>0.15166399999999999</v>
       </c>
       <c r="AO56" s="1">
-        <v>5.4000000000000001E-4</v>
+        <v>0.15764</v>
       </c>
       <c r="AS56" s="1">
-        <v>7.1640000000000002E-3</v>
+        <v>0.47414099999999998</v>
       </c>
       <c r="AT56" s="1">
-        <v>2.0556999999999999E-2</v>
-      </c>
-      <c r="AU56" s="1">
-        <v>5.2194999999999998E-2</v>
+        <v>9.7154000000000004E-2</v>
       </c>
       <c r="AV56" s="1">
-        <v>1.8092E-2</v>
+        <v>0.28982599999999997</v>
       </c>
       <c r="AW56" s="1">
-        <v>5.3990000000000002E-3</v>
+        <v>0.53390400000000005</v>
       </c>
       <c r="AX56" s="1">
-        <v>1.5039999999999999E-3</v>
+        <v>1.1871609999999999</v>
       </c>
       <c r="BA56" s="1">
-        <v>0.48567399999999999</v>
+        <v>3.7444999999999999E-2</v>
       </c>
       <c r="BB56" s="1">
-        <v>5.7013000000000001E-2</v>
+        <v>1.4723E-2</v>
       </c>
       <c r="BC56" s="1">
-        <v>0.21953600000000001</v>
+        <v>0.113515</v>
       </c>
       <c r="BD56" s="1">
-        <v>0.56419200000000003</v>
+        <v>0.21665899999999999</v>
       </c>
       <c r="BE56" s="1">
-        <v>0.34297499999999997</v>
+        <v>0.16983599999999999</v>
       </c>
       <c r="BF56" s="1">
-        <v>0.200708</v>
+        <v>0.33893800000000002</v>
       </c>
       <c r="BG56" s="1">
-        <v>0.53929400000000005</v>
+        <v>6.8250000000000005E-2</v>
       </c>
       <c r="BH56" s="1">
-        <v>0.230541</v>
+        <v>0.105235</v>
       </c>
       <c r="BI56" s="1">
-        <v>4.5601000000000003E-2</v>
+        <v>8.4831000000000004E-2</v>
       </c>
       <c r="BL56" s="1">
-        <v>3.1747869999999998</v>
+        <v>9.979E-3</v>
       </c>
       <c r="BM56" s="1">
-        <v>0.80220999999999998</v>
+        <v>2.9003999999999999E-2</v>
       </c>
       <c r="BN56" s="1">
-        <v>0.12010999999999999</v>
+        <v>3.3050000000000003E-2</v>
       </c>
       <c r="BO56" s="1">
-        <v>9.6744999999999998E-2</v>
+        <v>2.1111000000000001E-2</v>
       </c>
       <c r="BP56" s="1">
-        <v>8.8561000000000001E-2</v>
+        <v>2.0999E-2</v>
       </c>
       <c r="BQ56" s="1">
-        <v>0.53549199999999997</v>
+        <v>8.9251999999999998E-2</v>
       </c>
       <c r="BR56" s="1">
-        <v>1.904331</v>
+        <v>7.1253999999999998E-2</v>
       </c>
       <c r="BS56" s="1">
-        <v>0.105077</v>
+        <v>1.9539999999999998E-2</v>
       </c>
       <c r="BT56" s="1">
-        <v>0.32859300000000002</v>
+        <v>5.5060999999999999E-2</v>
       </c>
       <c r="BW56" s="1">
-        <v>1.95E-4</v>
+        <v>125.39272699999999</v>
       </c>
       <c r="BX56" s="1">
-        <v>1.3095000000000001E-2</v>
+        <v>78.847384000000005</v>
       </c>
       <c r="BY56" s="1">
-        <v>2.0095999999999999E-2</v>
+        <v>107.22465699999999</v>
       </c>
       <c r="BZ56" s="1">
-        <v>2.4176E-2</v>
-      </c>
-      <c r="CA56" s="1">
-        <v>1.7215999999999999E-2</v>
+        <v>61.610674000000003</v>
       </c>
       <c r="CD56" s="1">
-        <v>0.10295600000000001</v>
+        <v>0.39241399999999999</v>
       </c>
       <c r="CE56" s="1">
-        <v>3.2680000000000001E-2</v>
+        <v>5.8716999999999998E-2</v>
       </c>
       <c r="CF56" s="1">
-        <v>2.6204999999999999E-2</v>
+        <v>5.8601E-2</v>
       </c>
       <c r="CG56" s="1">
-        <v>3.5642E-2</v>
+        <v>2.7574000000000001E-2</v>
       </c>
       <c r="CH56" s="1">
-        <v>4.9939999999999998E-2</v>
-      </c>
-      <c r="CN56" s="1">
-        <v>0.187697</v>
+        <v>3.7751E-2</v>
       </c>
       <c r="CO56" s="1">
-        <v>5.0387000000000001E-2</v>
+        <v>2.9153999999999999E-2</v>
       </c>
       <c r="CP56" s="1">
-        <v>0.14121700000000001</v>
+        <v>1.0078E-2</v>
       </c>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1">
-        <v>2.7629999999999998E-3</v>
+        <v>1.430852</v>
       </c>
       <c r="C57" s="1">
-        <v>1.5529999999999999E-3</v>
+        <v>0.16215499999999999</v>
       </c>
       <c r="D57" s="1">
-        <v>7.9550000000000003E-3</v>
+        <v>0.151449</v>
       </c>
       <c r="E57" s="1">
-        <v>1.108E-2</v>
+        <v>0.102171</v>
       </c>
       <c r="F57" s="1">
-        <v>1.3746E-2</v>
+        <v>0.10063</v>
       </c>
       <c r="I57" s="1">
-        <v>1.614E-3</v>
+        <v>1.158838</v>
       </c>
       <c r="J57" s="1">
-        <v>4.7809999999999997E-3</v>
+        <v>0.67320400000000002</v>
       </c>
       <c r="K57" s="1">
-        <v>5.555E-3</v>
+        <v>0.19900899999999999</v>
       </c>
       <c r="L57" s="1">
-        <v>1.0710000000000001E-2</v>
+        <v>9.7605999999999998E-2</v>
       </c>
       <c r="M57" s="1">
-        <v>9.5219999999999992E-3</v>
+        <v>7.6760999999999996E-2</v>
       </c>
       <c r="P57" s="1">
-        <v>1.1892E-2</v>
+        <v>1.9022000000000001E-2</v>
       </c>
       <c r="Q57" s="1">
-        <v>4.7522000000000002E-2</v>
+        <v>5.0359999999999997E-3</v>
       </c>
       <c r="R57" s="1">
-        <v>6.5600000000000006E-2</v>
+        <v>3.7829999999999999E-3</v>
       </c>
       <c r="S57" s="1">
-        <v>0.119835</v>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="T57" s="1">
-        <v>5.6633999999999997E-2</v>
+        <v>3.565E-3</v>
       </c>
       <c r="W57" s="1">
-        <v>0.93754999999999999</v>
+        <v>1.8699999999999999E-4</v>
       </c>
       <c r="X57" s="1">
-        <v>0.43530600000000003</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="Y57" s="1">
-        <v>1.5220670000000001</v>
+        <v>7.4999999999999993E-5</v>
       </c>
       <c r="AC57" s="1">
-        <v>0.21757599999999999</v>
+        <v>9.3930000000000003E-3</v>
       </c>
       <c r="AD57" s="1">
-        <v>0.1807</v>
+        <v>2.8010000000000001E-3</v>
       </c>
       <c r="AH57" s="1">
-        <v>0.68785600000000002</v>
+        <v>1.83E-4</v>
       </c>
       <c r="AI57" s="1">
-        <v>1.0536799999999999</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="AJ57" s="1">
-        <v>2.0093450000000002</v>
+        <v>8.7999999999999998E-5</v>
       </c>
       <c r="AM57" s="1">
-        <v>0.105903</v>
+        <v>1.8619999999999999E-3</v>
       </c>
       <c r="AN57" s="1">
-        <v>0.146063</v>
+        <v>1.039E-3</v>
       </c>
       <c r="AO57" s="1">
-        <v>0.17285300000000001</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="AS57" s="1">
-        <v>0.45954899999999999</v>
+        <v>7.1640000000000002E-3</v>
       </c>
       <c r="AT57" s="1">
-        <v>6.1962000000000003E-2</v>
+        <v>2.0556999999999999E-2</v>
       </c>
       <c r="AU57" s="1">
-        <v>0.22851299999999999</v>
+        <v>5.2194999999999998E-2</v>
       </c>
       <c r="AV57" s="1">
-        <v>0.13214100000000001</v>
+        <v>1.8092E-2</v>
       </c>
       <c r="AW57" s="1">
-        <v>0.29516599999999998</v>
+        <v>5.3990000000000002E-3</v>
       </c>
       <c r="AX57" s="1">
-        <v>0.85648199999999997</v>
+        <v>1.5039999999999999E-3</v>
       </c>
       <c r="BA57" s="1">
-        <v>2.6324E-2</v>
+        <v>0.48567399999999999</v>
       </c>
       <c r="BB57" s="1">
-        <v>1.2982E-2</v>
+        <v>5.7013000000000001E-2</v>
       </c>
       <c r="BC57" s="1">
-        <v>7.6327999999999993E-2</v>
+        <v>0.21953600000000001</v>
       </c>
       <c r="BD57" s="1">
-        <v>9.5575999999999994E-2</v>
+        <v>0.56419200000000003</v>
       </c>
       <c r="BE57" s="1">
-        <v>0.103641</v>
+        <v>0.34297499999999997</v>
       </c>
       <c r="BF57" s="1">
-        <v>0.16236700000000001</v>
+        <v>0.200708</v>
       </c>
       <c r="BG57" s="1">
-        <v>4.5685000000000003E-2</v>
+        <v>0.53929400000000005</v>
       </c>
       <c r="BH57" s="1">
-        <v>7.689E-2</v>
+        <v>0.230541</v>
       </c>
       <c r="BI57" s="1">
-        <v>5.2153999999999999E-2</v>
+        <v>4.5601000000000003E-2</v>
       </c>
       <c r="BL57" s="1">
-        <v>7.6239999999999997E-3</v>
+        <v>3.1747869999999998</v>
       </c>
       <c r="BM57" s="1">
-        <v>2.1342E-2</v>
+        <v>0.80220999999999998</v>
       </c>
       <c r="BN57" s="1">
-        <v>2.102E-2</v>
+        <v>0.12010999999999999</v>
       </c>
       <c r="BO57" s="1">
-        <v>1.7824E-2</v>
+        <v>9.6744999999999998E-2</v>
       </c>
       <c r="BP57" s="1">
-        <v>1.1336000000000001E-2</v>
+        <v>8.8561000000000001E-2</v>
       </c>
       <c r="BQ57" s="1">
-        <v>3.2652E-2</v>
+        <v>0.53549199999999997</v>
       </c>
       <c r="BR57" s="1">
-        <v>2.3057999999999999E-2</v>
+        <v>1.904331</v>
       </c>
       <c r="BS57" s="1">
-        <v>1.5081000000000001E-2</v>
+        <v>0.105077</v>
       </c>
       <c r="BT57" s="1">
         <v>0.32859300000000002</v>
       </c>
+      <c r="BW57" s="1">
+        <v>1.95E-4</v>
+      </c>
+      <c r="BX57" s="1">
+        <v>1.3095000000000001E-2</v>
+      </c>
+      <c r="BY57" s="1">
+        <v>2.0095999999999999E-2</v>
+      </c>
+      <c r="BZ57" s="1">
+        <v>2.4176E-2</v>
+      </c>
+      <c r="CA57" s="1">
+        <v>1.7215999999999999E-2</v>
+      </c>
       <c r="CD57" s="1">
-        <v>0.26007999999999998</v>
+        <v>0.10295600000000001</v>
       </c>
       <c r="CE57" s="1">
-        <v>2.0003E-2</v>
+        <v>3.2680000000000001E-2</v>
       </c>
       <c r="CF57" s="1">
-        <v>1.5266E-2</v>
+        <v>2.6204999999999999E-2</v>
       </c>
       <c r="CG57" s="1">
-        <v>1.3003000000000001E-2</v>
+        <v>3.5642E-2</v>
       </c>
       <c r="CH57" s="1">
-        <v>1.5167999999999999E-2</v>
+        <v>4.9939999999999998E-2</v>
       </c>
       <c r="CN57" s="1">
         <v>0.187697</v>
       </c>
       <c r="CO57" s="1">
-        <v>2.0442999999999999E-2</v>
+        <v>5.0387000000000001E-2</v>
       </c>
       <c r="CP57" s="1">
-        <v>5.9020000000000001E-3</v>
+        <v>0.14121700000000001</v>
       </c>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
-        <v>5.7600000000000001E-4</v>
+        <v>2.7629999999999998E-3</v>
       </c>
       <c r="C58" s="1">
-        <v>2.5099999999999998E-4</v>
+        <v>1.5529999999999999E-3</v>
       </c>
       <c r="D58" s="1">
-        <v>1.92E-4</v>
+        <v>7.9550000000000003E-3</v>
       </c>
       <c r="E58" s="1">
-        <v>5.5099999999999995E-4</v>
+        <v>1.108E-2</v>
       </c>
       <c r="F58" s="1">
-        <v>4.9299999999999995E-4</v>
+        <v>1.3746E-2</v>
       </c>
       <c r="I58" s="1">
-        <v>4.2499999999999998E-4</v>
+        <v>1.614E-3</v>
       </c>
       <c r="J58" s="1">
-        <v>2.9E-4</v>
+        <v>4.7809999999999997E-3</v>
       </c>
       <c r="K58" s="1">
-        <v>7.7999999999999999E-5</v>
+        <v>5.555E-3</v>
       </c>
       <c r="L58" s="1">
-        <v>4.15E-4</v>
+        <v>1.0710000000000001E-2</v>
       </c>
       <c r="M58" s="1">
-        <v>4.3100000000000001E-4</v>
+        <v>9.5219999999999992E-3</v>
       </c>
       <c r="P58" s="1">
-        <v>2.7009999999999998E-3</v>
+        <v>1.1892E-2</v>
       </c>
       <c r="Q58" s="1">
-        <v>8.8000000000000003E-4</v>
+        <v>4.7522000000000002E-2</v>
       </c>
       <c r="R58" s="1">
-        <v>7.2400000000000003E-4</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="S58" s="1">
-        <v>6.78E-4</v>
+        <v>0.119835</v>
       </c>
       <c r="T58" s="1">
-        <v>5.3600000000000002E-4</v>
+        <v>5.6633999999999997E-2</v>
       </c>
       <c r="W58" s="1">
-        <v>6.0999999999999997E-4</v>
+        <v>0.93754999999999999</v>
       </c>
       <c r="X58" s="1">
-        <v>2.2000000000000001E-4</v>
+        <v>0.43530600000000003</v>
       </c>
       <c r="Y58" s="1">
-        <v>3.5399999999999999E-4</v>
+        <v>1.5220670000000001</v>
       </c>
       <c r="AC58" s="1">
-        <v>1.4109999999999999E-3</v>
+        <v>0.21757599999999999</v>
       </c>
       <c r="AD58" s="1">
-        <v>5.6800000000000004E-4</v>
+        <v>0.1807</v>
       </c>
       <c r="AH58" s="1">
-        <v>3.594E-3</v>
+        <v>0.68785600000000002</v>
       </c>
       <c r="AI58" s="1">
-        <v>3.9919999999999999E-3</v>
+        <v>1.0536799999999999</v>
       </c>
       <c r="AJ58" s="1">
-        <v>6.5970000000000004E-3</v>
+        <v>2.0093450000000002</v>
       </c>
       <c r="AM58" s="1">
-        <v>4.9100000000000001E-4</v>
+        <v>0.105903</v>
       </c>
       <c r="AN58" s="1">
-        <v>4.2700000000000002E-4</v>
+        <v>0.146063</v>
       </c>
       <c r="AO58" s="1">
-        <v>2.8899999999999998E-4</v>
+        <v>0.17285300000000001</v>
+      </c>
+      <c r="AS58" s="1">
+        <v>0.45954899999999999</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>6.1962000000000003E-2</v>
+      </c>
+      <c r="AU58" s="1">
+        <v>0.22851299999999999</v>
+      </c>
+      <c r="AV58" s="1">
+        <v>0.13214100000000001</v>
+      </c>
+      <c r="AW58" s="1">
+        <v>0.29516599999999998</v>
+      </c>
+      <c r="AX58" s="1">
+        <v>0.85648199999999997</v>
       </c>
       <c r="BA58" s="1">
-        <v>4.6900000000000002E-4</v>
+        <v>2.6324E-2</v>
       </c>
       <c r="BB58" s="1">
-        <v>2.4800000000000001E-4</v>
+        <v>1.2982E-2</v>
       </c>
       <c r="BC58" s="1">
-        <v>3.5890000000000002E-3</v>
+        <v>7.6327999999999993E-2</v>
       </c>
       <c r="BD58" s="1">
-        <v>9.1106999999999994E-2</v>
+        <v>9.5575999999999994E-2</v>
       </c>
       <c r="BE58" s="1">
-        <v>8.1980999999999998E-2</v>
+        <v>0.103641</v>
       </c>
       <c r="BF58" s="1">
-        <v>7.1249000000000007E-2</v>
+        <v>0.16236700000000001</v>
       </c>
       <c r="BG58" s="1">
-        <v>3.7669999999999999E-3</v>
+        <v>4.5685000000000003E-2</v>
       </c>
       <c r="BH58" s="1">
-        <v>2.6203000000000001E-2</v>
+        <v>7.689E-2</v>
       </c>
       <c r="BI58" s="1">
-        <v>2.198E-2</v>
+        <v>5.2153999999999999E-2</v>
       </c>
       <c r="BL58" s="1">
-        <v>9.025E-3</v>
+        <v>7.6239999999999997E-3</v>
       </c>
       <c r="BM58" s="1">
-        <v>7.404E-3</v>
+        <v>2.1342E-2</v>
       </c>
       <c r="BN58" s="1">
-        <v>3.4009999999999999E-3</v>
+        <v>2.102E-2</v>
       </c>
       <c r="BO58" s="1">
-        <v>4.2233E-2</v>
+        <v>1.7824E-2</v>
       </c>
       <c r="BP58" s="1">
-        <v>5.6148000000000003E-2</v>
+        <v>1.1336000000000001E-2</v>
       </c>
       <c r="BQ58" s="1">
-        <v>0.47577599999999998</v>
+        <v>3.2652E-2</v>
       </c>
       <c r="BR58" s="1">
-        <v>2.6751E-2</v>
+        <v>2.3057999999999999E-2</v>
       </c>
       <c r="BS58" s="1">
-        <v>3.1061999999999999E-2</v>
+        <v>1.5081000000000001E-2</v>
       </c>
       <c r="BT58" s="1">
-        <v>0.106873</v>
-      </c>
-      <c r="BW58" s="1">
-        <v>5.143E-3</v>
-      </c>
-      <c r="BX58" s="1">
-        <v>1.4082000000000001E-2</v>
-      </c>
-      <c r="BY58" s="1">
-        <v>7.9539999999999993E-3</v>
-      </c>
-      <c r="BZ58" s="1">
-        <v>1.4795000000000001E-2</v>
-      </c>
-      <c r="CA58" s="1">
-        <v>1.5376000000000001E-2</v>
+        <v>0.32859300000000002</v>
       </c>
       <c r="CD58" s="1">
-        <v>1.531E-3</v>
+        <v>0.26007999999999998</v>
       </c>
       <c r="CE58" s="1">
-        <v>4.6129999999999999E-3</v>
+        <v>2.0003E-2</v>
       </c>
       <c r="CF58" s="1">
-        <v>7.1699999999999997E-4</v>
+        <v>1.5266E-2</v>
       </c>
       <c r="CG58" s="1">
-        <v>5.9400000000000002E-4</v>
+        <v>1.3003000000000001E-2</v>
       </c>
       <c r="CH58" s="1">
-        <v>9.5299999999999996E-4</v>
+        <v>1.5167999999999999E-2</v>
       </c>
       <c r="CN58" s="1">
-        <v>4.6200000000000001E-4</v>
+        <v>0.187697</v>
       </c>
       <c r="CO58" s="1">
-        <v>3.8699999999999997E-4</v>
+        <v>2.0442999999999999E-2</v>
       </c>
       <c r="CP58" s="1">
-        <v>3.3700000000000001E-4</v>
+        <v>5.9020000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="B59" s="1">
+        <v>5.7600000000000001E-4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.92E-4</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5.5099999999999995E-4</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4.9299999999999995E-4</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2.9E-4</v>
+      </c>
+      <c r="K59" s="1">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="L59" s="1">
+        <v>4.15E-4</v>
+      </c>
+      <c r="M59" s="1">
+        <v>4.3100000000000001E-4</v>
       </c>
       <c r="P59" s="1">
+        <v>2.7009999999999998E-3</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="R59" s="1">
+        <v>7.2400000000000003E-4</v>
+      </c>
+      <c r="S59" s="1">
+        <v>6.78E-4</v>
+      </c>
+      <c r="T59" s="1">
+        <v>5.3600000000000002E-4</v>
+      </c>
+      <c r="W59" s="1">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="X59" s="1">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>3.5399999999999999E-4</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>1.4109999999999999E-3</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>5.6800000000000004E-4</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>3.594E-3</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>3.9919999999999999E-3</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>6.5970000000000004E-3</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>4.9100000000000001E-4</v>
+      </c>
+      <c r="AN59" s="1">
+        <v>4.2700000000000002E-4</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>2.8899999999999998E-4</v>
+      </c>
+      <c r="BA59" s="1">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="BB59" s="1">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="BC59" s="1">
+        <v>3.5890000000000002E-3</v>
+      </c>
+      <c r="BD59" s="1">
+        <v>9.1106999999999994E-2</v>
+      </c>
+      <c r="BE59" s="1">
+        <v>8.1980999999999998E-2</v>
+      </c>
+      <c r="BF59" s="1">
+        <v>7.1249000000000007E-2</v>
+      </c>
+      <c r="BG59" s="1">
+        <v>3.7669999999999999E-3</v>
+      </c>
+      <c r="BH59" s="1">
+        <v>2.6203000000000001E-2</v>
+      </c>
+      <c r="BI59" s="1">
+        <v>2.198E-2</v>
+      </c>
+      <c r="BL59" s="1">
+        <v>9.025E-3</v>
+      </c>
+      <c r="BM59" s="1">
+        <v>7.404E-3</v>
+      </c>
+      <c r="BN59" s="1">
+        <v>3.4009999999999999E-3</v>
+      </c>
+      <c r="BO59" s="1">
+        <v>4.2233E-2</v>
+      </c>
+      <c r="BP59" s="1">
+        <v>5.6148000000000003E-2</v>
+      </c>
+      <c r="BQ59" s="1">
+        <v>0.47577599999999998</v>
+      </c>
+      <c r="BR59" s="1">
+        <v>2.6751E-2</v>
+      </c>
+      <c r="BS59" s="1">
+        <v>3.1061999999999999E-2</v>
+      </c>
+      <c r="BT59" s="1">
+        <v>0.106873</v>
+      </c>
+      <c r="BW59" s="1">
+        <v>5.143E-3</v>
+      </c>
+      <c r="BX59" s="1">
+        <v>1.4082000000000001E-2</v>
+      </c>
+      <c r="BY59" s="1">
+        <v>7.9539999999999993E-3</v>
+      </c>
+      <c r="BZ59" s="1">
+        <v>1.4795000000000001E-2</v>
+      </c>
+      <c r="CA59" s="1">
+        <v>1.5376000000000001E-2</v>
+      </c>
+      <c r="CD59" s="1">
+        <v>1.531E-3</v>
+      </c>
+      <c r="CE59" s="1">
+        <v>4.6129999999999999E-3</v>
+      </c>
+      <c r="CF59" s="1">
+        <v>7.1699999999999997E-4</v>
+      </c>
+      <c r="CG59" s="1">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="CH59" s="1">
+        <v>9.5299999999999996E-4</v>
+      </c>
+      <c r="CN59" s="1">
+        <v>4.6200000000000001E-4</v>
+      </c>
+      <c r="CO59" s="1">
+        <v>3.8699999999999997E-4</v>
+      </c>
+      <c r="CP59" s="1">
+        <v>3.3700000000000001E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:94" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" s="1">
         <v>8.8673000000000002E-2</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q60" s="1">
         <v>0.10047499999999999</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R60" s="1">
         <v>0.10306700000000001</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S60" s="1">
         <v>0.18710299999999999</v>
       </c>
-      <c r="T59" s="1">
+      <c r="T60" s="1">
         <v>7.4177000000000007E-2</v>
       </c>
-      <c r="W59" s="1">
+      <c r="W60" s="1">
         <v>1.906825</v>
       </c>
-      <c r="X59" s="1">
+      <c r="X60" s="1">
         <v>0.81635999999999997</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Y60" s="1">
         <v>2.6569590000000001</v>
       </c>
-      <c r="AC59" s="1">
+      <c r="AC60" s="1">
         <v>0.884683</v>
       </c>
-      <c r="AD59" s="1">
+      <c r="AD60" s="1">
         <v>0.180205</v>
       </c>
-      <c r="AM59" s="1">
+      <c r="AM60" s="1">
         <v>0.36396400000000001</v>
       </c>
-      <c r="AN59" s="1">
+      <c r="AN60" s="1">
         <v>0.45308399999999999</v>
       </c>
-      <c r="AO59" s="1">
+      <c r="AO60" s="1">
         <v>0.452121</v>
       </c>
-      <c r="BA59" s="1">
+      <c r="BA60" s="1">
         <v>4.1842999999999998E-2</v>
       </c>
-      <c r="BB59" s="1">
+      <c r="BB60" s="1">
         <v>1.1723000000000001E-2</v>
       </c>
-      <c r="BC59" s="1">
+      <c r="BC60" s="1">
         <v>7.8412999999999997E-2</v>
       </c>
-      <c r="BD59" s="1">
+      <c r="BD60" s="1">
         <v>7.8645999999999994E-2</v>
       </c>
-      <c r="BE59" s="1">
+      <c r="BE60" s="1">
         <v>7.8855999999999996E-2</v>
       </c>
-      <c r="BF59" s="1">
+      <c r="BF60" s="1">
         <v>0.11840100000000001</v>
       </c>
-      <c r="BG59" s="1">
+      <c r="BG60" s="1">
         <v>5.3935999999999998E-2</v>
       </c>
-      <c r="BH59" s="1">
+      <c r="BH60" s="1">
         <v>6.7098000000000005E-2</v>
       </c>
-      <c r="BI59" s="1">
+      <c r="BI60" s="1">
         <v>4.7975999999999998E-2</v>
       </c>
-      <c r="BL59" s="1">
+      <c r="BL60" s="1">
         <v>6.7619999999999998E-3</v>
       </c>
-      <c r="BM59" s="1">
+      <c r="BM60" s="1">
         <v>3.0862000000000001E-2</v>
       </c>
-      <c r="BN59" s="1">
+      <c r="BN60" s="1">
         <v>2.8278000000000001E-2</v>
       </c>
-      <c r="BO59" s="1">
+      <c r="BO60" s="1">
         <v>6.0156000000000001E-2</v>
       </c>
-      <c r="BP59" s="1">
+      <c r="BP60" s="1">
         <v>6.1335000000000001E-2</v>
       </c>
-      <c r="BQ59" s="1">
+      <c r="BQ60" s="1">
         <v>0.14679200000000001</v>
       </c>
-      <c r="BR59" s="1">
+      <c r="BR60" s="1">
         <v>2.3451E-2</v>
       </c>
-      <c r="BS59" s="1">
+      <c r="BS60" s="1">
         <v>3.4859000000000001E-2</v>
       </c>
-      <c r="BT59" s="1">
+      <c r="BT60" s="1">
         <v>0.32644899999999999</v>
       </c>
-      <c r="CD59" s="1">
+      <c r="CD60" s="1">
         <v>4.6760000000000003E-2</v>
       </c>
-      <c r="CE59" s="1">
+      <c r="CE60" s="1">
         <v>0.198854</v>
       </c>
-      <c r="CF59" s="1">
+      <c r="CF60" s="1">
         <v>1.7179E-2</v>
       </c>
-      <c r="CG59" s="1">
+      <c r="CG60" s="1">
         <v>1.4628E-2</v>
       </c>
-      <c r="CH59" s="1">
+      <c r="CH60" s="1">
         <v>1.5831000000000001E-2</v>
       </c>
-      <c r="CO59" s="1">
+      <c r="CO60" s="1">
         <v>5.9847999999999998E-2</v>
       </c>
-      <c r="CP59" s="1">
+      <c r="CP60" s="1">
         <v>1.8193999999999998E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J62" s="1">
-        <f t="shared" ref="J62:BA62" si="27">J50/J26</f>
-        <v>0.12564360731154278</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="27"/>
-        <v>7.4244277476847809E-2</v>
-      </c>
-      <c r="T62" s="1">
-        <f t="shared" si="27"/>
-        <v>0.14148578416386426</v>
-      </c>
-      <c r="AC62" s="1">
-        <f t="shared" si="27"/>
-        <v>0.16532092162106563</v>
-      </c>
-      <c r="AO62" s="1">
-        <f t="shared" si="27"/>
-        <v>0.12382945907238074</v>
-      </c>
-      <c r="BA62" s="1">
-        <f t="shared" si="27"/>
-        <v>0.12117263609800924</v>
-      </c>
-      <c r="CD62" s="1">
-        <f t="shared" ref="CD62:CG62" si="28">CD50/CD26</f>
-        <v>8.8519874476987448E-2</v>
-      </c>
-      <c r="CE62" s="1">
-        <f t="shared" si="28"/>
-        <v>0.13055352861461483</v>
-      </c>
-      <c r="CF62" s="1">
-        <f t="shared" si="28"/>
-        <v>7.0072166688174398E-2</v>
-      </c>
-      <c r="CG62" s="1">
-        <f t="shared" si="28"/>
-        <v>0.14780176106861562</v>
+      <c r="A62" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" ref="J63:K63" si="29">J51/J27</f>
-        <v>0.16076465057975556</v>
+        <f>J51/J26</f>
+        <v>0.12564360731154278</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="29"/>
-        <v>5.6821270726575314E-2</v>
+        <f>K51/K26</f>
+        <v>7.4244277476847809E-2</v>
+      </c>
+      <c r="L63" s="1">
+        <f>L51/L26</f>
+        <v>0.15754851265390152</v>
+      </c>
+      <c r="M63" s="1">
+        <f>M51/M26</f>
+        <v>0.1646080322763987</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" ref="T63" si="30">T51/T27</f>
-        <v>0.23508787900929634</v>
+        <f>T51/T26</f>
+        <v>0.14148578416386426</v>
       </c>
       <c r="AC63" s="1">
-        <f t="shared" ref="AC63" si="31">AC51/AC27</f>
-        <v>0.28355029473629334</v>
+        <f>AC51/AC26</f>
+        <v>0.16532092162106563</v>
+      </c>
+      <c r="AH63" s="1">
+        <f>AH51/AH26</f>
+        <v>0.18917233391738186</v>
       </c>
       <c r="AO63" s="1">
-        <f t="shared" ref="AO63" si="32">AO51/AO27</f>
-        <v>0.1602857738280542</v>
+        <f>AO51/AO26</f>
+        <v>0.12382945907238074</v>
       </c>
       <c r="BA63" s="1">
-        <f t="shared" ref="BA63" si="33">BA51/BA27</f>
-        <v>0.13506931242485587</v>
+        <f>BA51/BA26</f>
+        <v>0.12117263609800924</v>
       </c>
       <c r="CD63" s="1">
-        <f t="shared" ref="CD63:CG63" si="34">CD51/CD27</f>
-        <v>5.6316598106755211E-2</v>
+        <f t="shared" ref="CD63:CG63" si="27">CD51/CD26</f>
+        <v>8.8519874476987448E-2</v>
       </c>
       <c r="CE63" s="1">
-        <f t="shared" si="34"/>
-        <v>0.10929114120545377</v>
+        <f t="shared" si="27"/>
+        <v>0.13055352861461483</v>
       </c>
       <c r="CF63" s="1">
-        <f t="shared" si="34"/>
-        <v>2.7784862220470431E-2</v>
+        <f t="shared" si="27"/>
+        <v>7.0072166688174398E-2</v>
       </c>
       <c r="CG63" s="1">
-        <f t="shared" si="34"/>
-        <v>0.14661351878551437</v>
+        <f t="shared" si="27"/>
+        <v>0.14780176106861562</v>
       </c>
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="1">
-        <f t="shared" ref="B64:F70" si="35">B52/B28</f>
-        <v>0.12752214093184444</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="35"/>
-        <v>6.9593417434562654E-2</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="35"/>
-        <v>6.1924441848973541E-2</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="35"/>
-        <v>0.16694602748910495</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="35"/>
-        <v>0.16010877298999016</v>
-      </c>
-      <c r="I64" s="1">
-        <f t="shared" ref="I64:M64" si="36">I52/I28</f>
-        <v>6.809119010819166E-2</v>
+        <v>61</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="36"/>
-        <v>9.4465478368145658E-2</v>
+        <f t="shared" ref="J64:M64" si="28">J52/J27</f>
+        <v>0.16076465057975556</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="36"/>
-        <v>1.7393425736848763E-2</v>
+        <f t="shared" si="28"/>
+        <v>5.6821270726575314E-2</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="36"/>
-        <v>3.0992513663711935E-2</v>
+        <f t="shared" si="28"/>
+        <v>0.2487649097906488</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="36"/>
-        <v>3.0049131426566067E-2</v>
-      </c>
-      <c r="Q64" s="1">
-        <f t="shared" ref="Q64:T64" si="37">Q52/Q28</f>
-        <v>0.14590322821143667</v>
-      </c>
-      <c r="R64" s="1">
-        <f t="shared" si="37"/>
-        <v>0.14391447368421054</v>
+        <f t="shared" si="28"/>
+        <v>0.20402973010271477</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="37"/>
-        <v>0.14606879606879608</v>
-      </c>
-      <c r="W64" s="1">
-        <f t="shared" ref="W64:Y64" si="38">W52/W28</f>
-        <v>6.4986487335805407E-2</v>
-      </c>
-      <c r="X64" s="1">
-        <f t="shared" si="38"/>
-        <v>4.3100369091558517E-2</v>
-      </c>
-      <c r="Y64" s="1">
-        <f t="shared" si="38"/>
-        <v>7.5263662511984658E-2</v>
+        <f t="shared" ref="T64" si="29">T52/T27</f>
+        <v>0.23508787900929634</v>
       </c>
       <c r="AC64" s="1">
-        <f t="shared" ref="AC64" si="39">AC52/AC28</f>
-        <v>0.15606501194308858</v>
+        <f t="shared" ref="AC64" si="30">AC52/AC27</f>
+        <v>0.28355029473629334</v>
       </c>
       <c r="AH64" s="1">
-        <f t="shared" ref="AH64:AJ64" si="40">AH52/AH28</f>
-        <v>5.6400765394146617E-2</v>
-      </c>
-      <c r="AI64" s="1">
-        <f t="shared" si="40"/>
-        <v>8.1335457813021081E-2</v>
-      </c>
-      <c r="AJ64" s="1">
-        <f t="shared" si="40"/>
-        <v>0.11959844666611585</v>
-      </c>
-      <c r="AM64" s="1">
-        <f t="shared" ref="AM64:AO64" si="41">AM52/AM28</f>
-        <v>0.18292020987877691</v>
-      </c>
-      <c r="AN64" s="1">
-        <f t="shared" si="41"/>
-        <v>0.10744658784484548</v>
+        <f>AH52/AH27</f>
+        <v>0.20308996691093242</v>
       </c>
       <c r="AO64" s="1">
-        <f t="shared" si="41"/>
-        <v>0.11023979997727015</v>
-      </c>
-      <c r="AS64" s="1">
-        <f t="shared" ref="AS64:AX64" si="42">AS52/AS28</f>
-        <v>0.18681712789204155</v>
-      </c>
-      <c r="AT64" s="1">
-        <f t="shared" si="42"/>
-        <v>0.18734862058701651</v>
-      </c>
-      <c r="AU64" s="1">
-        <f t="shared" si="42"/>
-        <v>0.30625424784373056</v>
-      </c>
-      <c r="AV64" s="1">
-        <f t="shared" si="42"/>
-        <v>0.17510328708898459</v>
-      </c>
-      <c r="AW64" s="1">
-        <f t="shared" si="42"/>
-        <v>0.19098257530950014</v>
-      </c>
-      <c r="AX64" s="1">
-        <f t="shared" si="42"/>
-        <v>0.12792685466335418</v>
+        <f t="shared" ref="AO64" si="31">AO52/AO27</f>
+        <v>0.1602857738280542</v>
       </c>
       <c r="BA64" s="1">
-        <f t="shared" ref="BA64:BI64" si="43">BA52/BA28</f>
-        <v>0.10011658208750515</v>
-      </c>
-      <c r="BB64" s="1">
-        <f t="shared" si="43"/>
-        <v>0.15483020430701269</v>
-      </c>
-      <c r="BD64" s="1">
-        <f t="shared" si="43"/>
-        <v>0.31330447475152651</v>
-      </c>
-      <c r="BE64" s="1">
-        <f t="shared" si="43"/>
-        <v>0.26168755910224978</v>
-      </c>
-      <c r="BF64" s="1">
-        <f t="shared" si="43"/>
-        <v>0.26737696674552691</v>
-      </c>
-      <c r="BG64" s="1">
-        <f t="shared" si="43"/>
-        <v>0.26877968349310821</v>
-      </c>
-      <c r="BH64" s="1">
-        <f t="shared" si="43"/>
-        <v>0.20347318388661545</v>
-      </c>
-      <c r="BI64" s="1">
-        <f t="shared" si="43"/>
-        <v>0.18277798275973361</v>
-      </c>
-      <c r="BL64" s="1">
-        <f t="shared" ref="BL64:BT64" si="44">BL52/BL28</f>
-        <v>9.5802156027892327E-2</v>
-      </c>
-      <c r="BM64" s="1">
-        <f t="shared" si="44"/>
-        <v>0.13986162640758293</v>
-      </c>
-      <c r="BN64" s="1">
-        <f t="shared" si="44"/>
-        <v>0.16134216492857684</v>
-      </c>
-      <c r="BO64" s="1">
-        <f t="shared" si="44"/>
-        <v>0.16968085740513347</v>
-      </c>
-      <c r="BP64" s="1">
-        <f t="shared" si="44"/>
-        <v>0.1861672108523009</v>
-      </c>
-      <c r="BQ64" s="1">
-        <f t="shared" si="44"/>
-        <v>6.8477752787589247E-2</v>
-      </c>
-      <c r="BR64" s="1">
-        <f t="shared" si="44"/>
-        <v>0.35380876689297885</v>
-      </c>
-      <c r="BS64" s="1">
-        <f t="shared" si="44"/>
-        <v>0.16532898052012793</v>
-      </c>
-      <c r="BT64" s="1">
-        <f t="shared" si="44"/>
-        <v>0.11168510342421786</v>
-      </c>
-      <c r="BW64" s="1">
-        <f t="shared" ref="BW64:CA64" si="45">BW52/BW28</f>
-        <v>0.1420169980270147</v>
-      </c>
-      <c r="BX64" s="1">
-        <f t="shared" si="45"/>
-        <v>0.20224968138748822</v>
-      </c>
-      <c r="BY64" s="1">
-        <f t="shared" si="45"/>
-        <v>0.19398965706251042</v>
-      </c>
-      <c r="BZ64" s="1">
-        <f t="shared" si="45"/>
-        <v>0.21333831907265247</v>
-      </c>
-      <c r="CA64" s="1">
-        <f t="shared" si="45"/>
-        <v>0.27015741784625663</v>
+        <f t="shared" ref="BA64" si="32">BA52/BA27</f>
+        <v>0.13506931242485587</v>
       </c>
       <c r="CD64" s="1">
-        <f t="shared" ref="CD64:CH64" si="46">CD52/CD28</f>
-        <v>4.7570689600456982E-2</v>
+        <f t="shared" ref="CD64:CG64" si="33">CD52/CD27</f>
+        <v>5.6316598106755211E-2</v>
       </c>
       <c r="CE64" s="1">
-        <f t="shared" si="46"/>
-        <v>1.3554304289777674E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.10929114120545377</v>
       </c>
       <c r="CF64" s="1">
-        <f t="shared" si="46"/>
-        <v>1.7814586492820989E-2</v>
+        <f t="shared" si="33"/>
+        <v>2.7784862220470431E-2</v>
       </c>
       <c r="CG64" s="1">
-        <f t="shared" si="46"/>
-        <v>2.53238945093891E-2</v>
-      </c>
-      <c r="CH64" s="1">
-        <f t="shared" si="46"/>
-        <v>2.8374797897285264E-2</v>
-      </c>
-      <c r="CN64" s="1">
-        <f t="shared" ref="CN64" si="47">CN52/CN28</f>
-        <v>0.36115522032552599</v>
+        <f t="shared" si="33"/>
+        <v>0.14661351878551437</v>
       </c>
     </row>
     <row r="65" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1">
+        <f t="shared" ref="B65:F71" si="34">B53/B28</f>
+        <v>0.12752214093184444</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="34"/>
+        <v>6.9593417434562654E-2</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="34"/>
+        <v>6.1924441848973541E-2</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="34"/>
+        <v>0.16694602748910495</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="34"/>
+        <v>0.16010877298999016</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" ref="I65:M65" si="35">I53/I28</f>
+        <v>6.809119010819166E-2</v>
+      </c>
+      <c r="J65" s="1">
         <f t="shared" si="35"/>
-        <v>3.5253446959038467E-2</v>
-      </c>
-      <c r="C65" s="1">
+        <v>9.4465478368145658E-2</v>
+      </c>
+      <c r="K65" s="1">
         <f t="shared" si="35"/>
-        <v>2.1263314741356745E-2</v>
-      </c>
-      <c r="D65" s="1">
+        <v>1.7393425736848763E-2</v>
+      </c>
+      <c r="L65" s="1">
         <f t="shared" si="35"/>
-        <v>2.2494867533483235E-2</v>
-      </c>
-      <c r="E65" s="1">
+        <v>3.0992513663711935E-2</v>
+      </c>
+      <c r="M65" s="1">
         <f t="shared" si="35"/>
-        <v>5.2745256465096139E-2</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="35"/>
-        <v>4.5660942501567006E-2</v>
-      </c>
-      <c r="I65" s="1">
-        <f t="shared" ref="I65:M65" si="48">I53/I29</f>
-        <v>1.7436149312377212E-2</v>
-      </c>
-      <c r="J65" s="1">
-        <f t="shared" si="48"/>
-        <v>2.5891922364500285E-2</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="48"/>
-        <v>5.2023586709332046E-3</v>
-      </c>
-      <c r="L65" s="1">
-        <f t="shared" si="48"/>
-        <v>9.5574579879512626E-3</v>
-      </c>
-      <c r="M65" s="1">
-        <f t="shared" si="48"/>
-        <v>8.9421457040719885E-3</v>
+        <v>3.0049131426566067E-2</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" ref="Q65:T65" si="49">Q53/Q29</f>
-        <v>5.0479986713170576E-2</v>
+        <f t="shared" ref="Q65:T65" si="36">Q53/Q28</f>
+        <v>0.14590322821143667</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="49"/>
-        <v>4.4393734096996526E-2</v>
+        <f t="shared" si="36"/>
+        <v>0.14391447368421054</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="49"/>
-        <v>4.4589009714910852E-2</v>
+        <f t="shared" si="36"/>
+        <v>0.14606879606879608</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" ref="W65:Y65" si="50">W53/W29</f>
-        <v>2.3077300112866218E-2</v>
+        <f t="shared" ref="W65:Y65" si="37">W53/W28</f>
+        <v>6.4986487335805407E-2</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="50"/>
-        <v>1.5669597128307462E-2</v>
+        <f t="shared" si="37"/>
+        <v>4.3100369091558517E-2</v>
       </c>
       <c r="Y65" s="1">
-        <f t="shared" si="50"/>
-        <v>2.9846743638186849E-2</v>
+        <f t="shared" si="37"/>
+        <v>7.5263662511984658E-2</v>
       </c>
       <c r="AC65" s="1">
-        <f t="shared" ref="AC65:AC71" si="51">AC53/AC29</f>
-        <v>6.7913987822971547E-2</v>
+        <f t="shared" ref="AC65" si="38">AC53/AC28</f>
+        <v>0.15606501194308858</v>
       </c>
       <c r="AH65" s="1">
-        <f t="shared" ref="AH65:AJ65" si="52">AH53/AH29</f>
-        <v>1.7571436906595038E-2</v>
+        <f t="shared" ref="AH65:AJ65" si="39">AH53/AH28</f>
+        <v>5.6400765394146617E-2</v>
       </c>
       <c r="AI65" s="1">
-        <f t="shared" si="52"/>
-        <v>2.7042073450659745E-2</v>
+        <f t="shared" si="39"/>
+        <v>8.1335457813021081E-2</v>
       </c>
       <c r="AJ65" s="1">
-        <f t="shared" si="52"/>
-        <v>4.4711095579807084E-2</v>
+        <f t="shared" si="39"/>
+        <v>0.11959844666611585</v>
       </c>
       <c r="AM65" s="1">
-        <f t="shared" ref="AM65:AO65" si="53">AM53/AM29</f>
-        <v>3.9388169086204822E-2</v>
+        <f t="shared" ref="AM65:AO65" si="40">AM53/AM28</f>
+        <v>0.18292020987877691</v>
       </c>
       <c r="AN65" s="1">
-        <f t="shared" si="53"/>
-        <v>2.6502142755495013E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.10744658784484548</v>
       </c>
       <c r="AO65" s="1">
-        <f t="shared" si="53"/>
-        <v>3.05600388722501E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.11023979997727015</v>
       </c>
       <c r="AS65" s="1">
-        <f t="shared" ref="AS65:AX65" si="54">AS53/AS29</f>
-        <v>5.898177765749589E-2</v>
+        <f t="shared" ref="AS65:AX65" si="41">AS53/AS28</f>
+        <v>0.18681712789204155</v>
       </c>
       <c r="AT65" s="1">
-        <f t="shared" si="54"/>
-        <v>2.3656934164267659E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.18734862058701651</v>
       </c>
       <c r="AU65" s="1">
-        <f t="shared" si="54"/>
-        <v>4.1719192135013058E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.30625424784373056</v>
       </c>
       <c r="AV65" s="1">
-        <f t="shared" si="54"/>
-        <v>2.0165942887680078E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.17510328708898459</v>
       </c>
       <c r="AW65" s="1">
-        <f t="shared" si="54"/>
-        <v>3.7733891297277694E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.19098257530950014</v>
       </c>
       <c r="AX65" s="1">
-        <f t="shared" si="54"/>
-        <v>2.6787044422537796E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.12792685466335418</v>
       </c>
       <c r="BA65" s="1">
-        <f t="shared" ref="BA65:BI65" si="55">BA53/BA29</f>
-        <v>3.1337123865243843E-2</v>
+        <f t="shared" ref="BA65:BI65" si="42">BA53/BA28</f>
+        <v>0.10011658208750515</v>
       </c>
       <c r="BB65" s="1">
-        <f t="shared" si="55"/>
-        <v>4.9305150226521023E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.15483020430701269</v>
       </c>
       <c r="BD65" s="1">
-        <f t="shared" si="55"/>
-        <v>3.7472375641112929E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.31330447475152651</v>
       </c>
       <c r="BE65" s="1">
-        <f t="shared" si="55"/>
-        <v>3.5524301915246505E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.26168755910224978</v>
       </c>
       <c r="BF65" s="1">
-        <f t="shared" si="55"/>
-        <v>4.5188972643176104E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.26737696674552691</v>
       </c>
       <c r="BG65" s="1">
-        <f t="shared" si="55"/>
-        <v>6.3590033184783734E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.26877968349310821</v>
       </c>
       <c r="BH65" s="1">
-        <f t="shared" si="55"/>
-        <v>3.9726625058413761E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.20347318388661545</v>
       </c>
       <c r="BI65" s="1">
-        <f t="shared" si="55"/>
-        <v>3.3614379775538231E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.18277798275973361</v>
       </c>
       <c r="BL65" s="1">
-        <f t="shared" ref="BL65:BT65" si="56">BL53/BL29</f>
-        <v>1.1516215245921255E-2</v>
+        <f t="shared" ref="BL65:BT65" si="43">BL53/BL28</f>
+        <v>9.5802156027892327E-2</v>
       </c>
       <c r="BM65" s="1">
-        <f t="shared" si="56"/>
-        <v>2.7651554761248372E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.13986162640758293</v>
       </c>
       <c r="BN65" s="1">
-        <f t="shared" si="56"/>
-        <v>3.2699294721094251E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.16134216492857684</v>
       </c>
       <c r="BO65" s="1">
-        <f t="shared" si="56"/>
-        <v>2.9686095000650455E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.16968085740513347</v>
       </c>
       <c r="BP65" s="1">
-        <f t="shared" si="56"/>
-        <v>2.4814520765461166E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.1861672108523009</v>
       </c>
       <c r="BQ65" s="1">
-        <f t="shared" si="56"/>
-        <v>8.7464323387702221E-3</v>
+        <f t="shared" si="43"/>
+        <v>6.8477752787589247E-2</v>
       </c>
       <c r="BR65" s="1">
-        <f t="shared" si="56"/>
-        <v>3.4718231135481045E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.35380876689297885</v>
       </c>
       <c r="BS65" s="1">
-        <f t="shared" si="56"/>
-        <v>2.5001746425030801E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.16532898052012793</v>
       </c>
       <c r="BT65" s="1">
-        <f t="shared" si="56"/>
-        <v>1.073127140582314E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.11168510342421786</v>
       </c>
       <c r="BW65" s="1">
-        <f t="shared" ref="BW65:CA65" si="57">BW53/BW29</f>
-        <v>9.5383248994534639E-2</v>
+        <f t="shared" ref="BW65:CA65" si="44">BW53/BW28</f>
+        <v>0.1420169980270147</v>
       </c>
       <c r="BX65" s="1">
-        <f t="shared" si="57"/>
-        <v>0.12528658631617628</v>
+        <f t="shared" si="44"/>
+        <v>0.20224968138748822</v>
       </c>
       <c r="BY65" s="1">
-        <f t="shared" si="57"/>
-        <v>0.11795960301011722</v>
+        <f t="shared" si="44"/>
+        <v>0.19398965706251042</v>
       </c>
       <c r="BZ65" s="1">
-        <f t="shared" si="57"/>
-        <v>0.10979499711907979</v>
+        <f t="shared" si="44"/>
+        <v>0.21333831907265247</v>
       </c>
       <c r="CA65" s="1">
-        <f t="shared" si="57"/>
-        <v>0.12160627788770775</v>
+        <f t="shared" si="44"/>
+        <v>0.27015741784625663</v>
       </c>
       <c r="CD65" s="1">
-        <f t="shared" ref="CD65:CH65" si="58">CD53/CD29</f>
-        <v>1.6782298664883583E-2</v>
+        <f t="shared" ref="CD65:CH65" si="45">CD53/CD28</f>
+        <v>4.7570689600456982E-2</v>
       </c>
       <c r="CE65" s="1">
-        <f t="shared" si="58"/>
-        <v>5.5589560959323362E-3</v>
+        <f t="shared" si="45"/>
+        <v>1.3554304289777674E-2</v>
       </c>
       <c r="CF65" s="1">
-        <f t="shared" si="58"/>
-        <v>6.2706545426355698E-3</v>
+        <f t="shared" si="45"/>
+        <v>1.7814586492820989E-2</v>
       </c>
       <c r="CG65" s="1">
-        <f t="shared" si="58"/>
-        <v>1.0423410591738963E-2</v>
+        <f t="shared" si="45"/>
+        <v>2.53238945093891E-2</v>
       </c>
       <c r="CH65" s="1">
-        <f t="shared" si="58"/>
-        <v>1.0468720239641231E-2</v>
+        <f t="shared" si="45"/>
+        <v>2.8374797897285264E-2</v>
       </c>
       <c r="CN65" s="1">
-        <f t="shared" ref="CN65" si="59">CN53/CN29</f>
-        <v>0.21495372929836787</v>
+        <f t="shared" ref="CN65" si="46">CN53/CN28</f>
+        <v>0.36115522032552599</v>
       </c>
     </row>
     <row r="66" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" si="35"/>
-        <v>0.32649950617791618</v>
+        <f t="shared" si="34"/>
+        <v>3.5253446959038467E-2</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="35"/>
-        <v>0.10386575974380408</v>
+        <f t="shared" si="34"/>
+        <v>2.1263314741356745E-2</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="35"/>
-        <v>0.22384145411221135</v>
+        <f t="shared" si="34"/>
+        <v>2.2494867533483235E-2</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="35"/>
-        <v>0.24722191563100152</v>
+        <f t="shared" si="34"/>
+        <v>5.2745256465096139E-2</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="35"/>
-        <v>0.26855086389597327</v>
+        <f t="shared" si="34"/>
+        <v>4.5660942501567006E-2</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" ref="I66:M66" si="60">I54/I30</f>
-        <v>0.29626813844848315</v>
+        <f t="shared" ref="I66:M66" si="47">I54/I29</f>
+        <v>1.7436149312377212E-2</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="60"/>
-        <v>0.35690809532410478</v>
+        <f t="shared" si="47"/>
+        <v>2.5891922364500285E-2</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="60"/>
-        <v>0.22315201004610699</v>
+        <f t="shared" si="47"/>
+        <v>5.2023586709332046E-3</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="60"/>
-        <v>0.19938223387087181</v>
+        <f t="shared" si="47"/>
+        <v>9.5574579879512626E-3</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="60"/>
-        <v>0.20472220261918925</v>
-      </c>
-      <c r="P66" s="1">
-        <f t="shared" ref="P66:T66" si="61">P54/P30</f>
-        <v>0.26127397672320046</v>
+        <f t="shared" si="47"/>
+        <v>8.9421457040719885E-3</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="61"/>
-        <v>0.2789027119879236</v>
+        <f t="shared" ref="Q66:T66" si="48">Q54/Q29</f>
+        <v>5.0479986713170576E-2</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="61"/>
-        <v>0.34999352583193061</v>
-      </c>
-      <c r="S66" s="1">
-        <f t="shared" si="61"/>
-        <v>0.53442000316505778</v>
+        <f t="shared" si="48"/>
+        <v>4.4393734096996526E-2</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="61"/>
-        <v>0.25977668698419548</v>
+        <f t="shared" si="48"/>
+        <v>4.4589009714910852E-2</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" ref="W66:Y66" si="62">W54/W30</f>
-        <v>0.29380053908355797</v>
+        <f t="shared" ref="W66:Y66" si="49">W54/W29</f>
+        <v>2.3077300112866218E-2</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" si="62"/>
-        <v>9.4610778443113761E-2</v>
+        <f t="shared" si="49"/>
+        <v>1.5669597128307462E-2</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" si="62"/>
-        <v>0.23499999999999999</v>
+        <f t="shared" si="49"/>
+        <v>2.9846743638186849E-2</v>
       </c>
       <c r="AC66" s="1">
+        <f t="shared" ref="AC66:AC72" si="50">AC54/AC29</f>
+        <v>6.7913987822971547E-2</v>
+      </c>
+      <c r="AH66" s="1">
+        <f t="shared" ref="AH66:AJ66" si="51">AH54/AH29</f>
+        <v>1.7571436906595038E-2</v>
+      </c>
+      <c r="AI66" s="1">
         <f t="shared" si="51"/>
-        <v>0.51749057858567948</v>
-      </c>
-      <c r="AD66" s="1">
-        <f t="shared" ref="AD66" si="63">AD54/AD30</f>
-        <v>0.24691070179529029</v>
-      </c>
-      <c r="AH66" s="1">
-        <f t="shared" ref="AH66:AJ66" si="64">AH54/AH30</f>
-        <v>0.25347506132461162</v>
-      </c>
-      <c r="AI66" s="1">
-        <f t="shared" si="64"/>
-        <v>0.15661103979460847</v>
+        <v>2.7042073450659745E-2</v>
       </c>
       <c r="AJ66" s="1">
-        <f t="shared" si="64"/>
-        <v>0.25950413223140495</v>
+        <f t="shared" si="51"/>
+        <v>4.4711095579807084E-2</v>
       </c>
       <c r="AM66" s="1">
-        <f t="shared" ref="AM66:AO66" si="65">AM54/AM30</f>
-        <v>0.24286612193588936</v>
+        <f t="shared" ref="AM66:AO66" si="52">AM54/AM29</f>
+        <v>3.9388169086204822E-2</v>
       </c>
       <c r="AN66" s="1">
-        <f t="shared" si="65"/>
-        <v>0.28793256433007985</v>
+        <f t="shared" si="52"/>
+        <v>2.6502142755495013E-2</v>
       </c>
       <c r="AO66" s="1">
-        <f t="shared" si="65"/>
-        <v>0.23508545630441793</v>
+        <f t="shared" si="52"/>
+        <v>3.05600388722501E-2</v>
       </c>
       <c r="AS66" s="1">
-        <f t="shared" ref="AS66:AX66" si="66">AS54/AS30</f>
-        <v>0.31255016263253499</v>
+        <f t="shared" ref="AS66:AX66" si="53">AS54/AS29</f>
+        <v>5.898177765749589E-2</v>
       </c>
       <c r="AT66" s="1">
-        <f t="shared" si="66"/>
-        <v>0.26026380676513539</v>
+        <f t="shared" si="53"/>
+        <v>2.3656934164267659E-2</v>
+      </c>
+      <c r="AU66" s="1">
+        <f t="shared" si="53"/>
+        <v>4.1719192135013058E-2</v>
       </c>
       <c r="AV66" s="1">
-        <f t="shared" si="66"/>
-        <v>0.62906251274313918</v>
+        <f t="shared" si="53"/>
+        <v>2.0165942887680078E-2</v>
       </c>
       <c r="AW66" s="1">
-        <f t="shared" si="66"/>
-        <v>0.38880396516583288</v>
+        <f t="shared" si="53"/>
+        <v>3.7733891297277694E-2</v>
       </c>
       <c r="AX66" s="1">
-        <f t="shared" si="66"/>
-        <v>0.30286010541778274</v>
+        <f t="shared" si="53"/>
+        <v>2.6787044422537796E-2</v>
       </c>
       <c r="BA66" s="1">
-        <f t="shared" ref="BA66:BI66" si="67">BA54/BA30</f>
-        <v>0.43525651908746255</v>
+        <f t="shared" ref="BA66:BI66" si="54">BA54/BA29</f>
+        <v>3.1337123865243843E-2</v>
       </c>
       <c r="BB66" s="1">
-        <f t="shared" si="67"/>
-        <v>8.180047538022793E-2</v>
-      </c>
-      <c r="BC66" s="1">
-        <f t="shared" si="67"/>
-        <v>0.38557729127464824</v>
+        <f t="shared" si="54"/>
+        <v>4.9305150226521023E-2</v>
       </c>
       <c r="BD66" s="1">
-        <f t="shared" si="67"/>
-        <v>0.91464338543114954</v>
+        <f t="shared" si="54"/>
+        <v>3.7472375641112929E-2</v>
       </c>
       <c r="BE66" s="1">
-        <f t="shared" si="67"/>
-        <v>0.67388712205804624</v>
+        <f t="shared" si="54"/>
+        <v>3.5524301915246505E-2</v>
       </c>
       <c r="BF66" s="1">
-        <f t="shared" si="67"/>
-        <v>0.87905325903471132</v>
+        <f t="shared" si="54"/>
+        <v>4.5188972643176104E-2</v>
       </c>
       <c r="BG66" s="1">
-        <f t="shared" si="67"/>
-        <v>0.36253413021601677</v>
+        <f t="shared" si="54"/>
+        <v>6.3590033184783734E-2</v>
       </c>
       <c r="BH66" s="1">
-        <f t="shared" si="67"/>
-        <v>0.3191552964789785</v>
+        <f t="shared" si="54"/>
+        <v>3.9726625058413761E-2</v>
       </c>
       <c r="BI66" s="1">
-        <f t="shared" si="67"/>
-        <v>0.13425861881201231</v>
+        <f t="shared" si="54"/>
+        <v>3.3614379775538231E-2</v>
       </c>
       <c r="BL66" s="1">
-        <f t="shared" ref="BL66:BT66" si="68">BL54/BL30</f>
-        <v>0.42383789796211396</v>
+        <f t="shared" ref="BL66:BT66" si="55">BL54/BL29</f>
+        <v>1.1516215245921255E-2</v>
       </c>
       <c r="BM66" s="1">
-        <f t="shared" si="68"/>
-        <v>0.32060475178971098</v>
+        <f t="shared" si="55"/>
+        <v>2.7651554761248372E-2</v>
       </c>
       <c r="BN66" s="1">
-        <f t="shared" si="68"/>
-        <v>0.13677948977758403</v>
+        <f t="shared" si="55"/>
+        <v>3.2699294721094251E-2</v>
       </c>
       <c r="BO66" s="1">
-        <f t="shared" si="68"/>
-        <v>9.8926607627869353E-2</v>
+        <f t="shared" si="55"/>
+        <v>2.9686095000650455E-2</v>
       </c>
       <c r="BP66" s="1">
-        <f t="shared" si="68"/>
-        <v>0.11236292412887183</v>
+        <f t="shared" si="55"/>
+        <v>2.4814520765461166E-2</v>
       </c>
       <c r="BQ66" s="1">
-        <f t="shared" si="68"/>
-        <v>2.0914304274526585</v>
+        <f t="shared" si="55"/>
+        <v>8.7464323387702221E-3</v>
       </c>
       <c r="BR66" s="1">
-        <f t="shared" si="68"/>
-        <v>2.0696230643800702</v>
+        <f t="shared" si="55"/>
+        <v>3.4718231135481045E-2</v>
       </c>
       <c r="BS66" s="1">
-        <f t="shared" si="68"/>
-        <v>0.1198222622878834</v>
+        <f t="shared" si="55"/>
+        <v>2.5001746425030801E-2</v>
       </c>
       <c r="BT66" s="1">
-        <f t="shared" si="68"/>
-        <v>0.67967226901971733</v>
+        <f t="shared" si="55"/>
+        <v>1.073127140582314E-2</v>
       </c>
       <c r="BW66" s="1">
-        <f t="shared" ref="BW66:BZ66" si="69">BW54/BW30</f>
-        <v>18.704545454545453</v>
+        <f t="shared" ref="BW66:CA66" si="56">BW54/BW29</f>
+        <v>9.5383248994534639E-2</v>
       </c>
       <c r="BX66" s="1">
-        <f t="shared" si="69"/>
-        <v>18.125348189415043</v>
+        <f t="shared" si="56"/>
+        <v>0.12528658631617628</v>
       </c>
       <c r="BY66" s="1">
-        <f t="shared" si="69"/>
-        <v>20.382978723404257</v>
+        <f t="shared" si="56"/>
+        <v>0.11795960301011722</v>
       </c>
       <c r="BZ66" s="1">
-        <f t="shared" si="69"/>
-        <v>13.911144578313253</v>
+        <f t="shared" si="56"/>
+        <v>0.10979499711907979</v>
+      </c>
+      <c r="CA66" s="1">
+        <f t="shared" si="56"/>
+        <v>0.12160627788770775</v>
       </c>
       <c r="CD66" s="1">
-        <f t="shared" ref="CD66:CH66" si="70">CD54/CD30</f>
-        <v>0.81006450200756519</v>
+        <f t="shared" ref="CD66:CH66" si="57">CD54/CD29</f>
+        <v>1.6782298664883583E-2</v>
       </c>
       <c r="CE66" s="1">
-        <f t="shared" si="70"/>
-        <v>0.3838710156184294</v>
+        <f t="shared" si="57"/>
+        <v>5.5589560959323362E-3</v>
       </c>
       <c r="CF66" s="1">
-        <f t="shared" si="70"/>
-        <v>0.47792929772878451</v>
+        <f t="shared" si="57"/>
+        <v>6.2706545426355698E-3</v>
       </c>
       <c r="CG66" s="1">
-        <f t="shared" si="70"/>
-        <v>0.31949235018820393</v>
+        <f t="shared" si="57"/>
+        <v>1.0423410591738963E-2</v>
       </c>
       <c r="CH66" s="1">
-        <f t="shared" si="70"/>
-        <v>0.34853727022897113</v>
-      </c>
-      <c r="CO66" s="1">
-        <f t="shared" ref="CO66:CP66" si="71">CO54/CO30</f>
-        <v>0.37068677131989441</v>
-      </c>
-      <c r="CP66" s="1">
-        <f t="shared" si="71"/>
-        <v>0.36406710645160328</v>
+        <f t="shared" si="57"/>
+        <v>1.0468720239641231E-2</v>
+      </c>
+      <c r="CN66" s="1">
+        <f t="shared" ref="CN66" si="58">CN54/CN29</f>
+        <v>0.21495372929836787</v>
       </c>
     </row>
     <row r="67" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="35"/>
-        <v>7.6874248296137912E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.32649950617791618</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="35"/>
-        <v>2.5878182404125042E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.10386575974380408</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="35"/>
-        <v>6.0900708561527274E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.22384145411221135</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="35"/>
-        <v>5.8635062436273193E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.24722191563100152</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="35"/>
-        <v>6.5561599299759299E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.26855086389597327</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67:M67" si="72">I55/I31</f>
-        <v>5.2395988757416981E-2</v>
+        <f t="shared" ref="I67:M67" si="59">I55/I30</f>
+        <v>0.29626813844848315</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="72"/>
-        <v>8.3718263718263713E-2</v>
+        <f t="shared" si="59"/>
+        <v>0.35690809532410478</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="72"/>
-        <v>5.2652955128829969E-2</v>
+        <f t="shared" si="59"/>
+        <v>0.22315201004610699</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="72"/>
-        <v>4.7749113896298462E-2</v>
+        <f t="shared" si="59"/>
+        <v>0.19938223387087181</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="72"/>
-        <v>4.3929582234187983E-2</v>
+        <f t="shared" si="59"/>
+        <v>0.20472220261918925</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" ref="P67:T67" si="73">P55/P31</f>
-        <v>5.3814930032567584E-2</v>
+        <f t="shared" ref="P67:T67" si="60">P55/P30</f>
+        <v>0.26127397672320046</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="73"/>
-        <v>7.0469623150856323E-2</v>
+        <f t="shared" si="60"/>
+        <v>0.2789027119879236</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="73"/>
-        <v>8.3289695475737169E-2</v>
+        <f t="shared" si="60"/>
+        <v>0.34999352583193061</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="73"/>
-        <v>0.15010373383811335</v>
+        <f t="shared" si="60"/>
+        <v>0.53442000316505778</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="73"/>
-        <v>5.8156875894308784E-2</v>
+        <f t="shared" si="60"/>
+        <v>0.25977668698419548</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" ref="W67:Y67" si="74">W55/W31</f>
-        <v>0.1001981931629343</v>
+        <f t="shared" ref="W67:Y67" si="61">W55/W30</f>
+        <v>0.29380053908355797</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" si="74"/>
-        <v>2.5174123956567328E-2</v>
+        <f t="shared" si="61"/>
+        <v>9.4610778443113761E-2</v>
       </c>
       <c r="Y67" s="1">
-        <f t="shared" si="74"/>
-        <v>7.4298994736029703E-2</v>
+        <f t="shared" si="61"/>
+        <v>0.23499999999999999</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" si="51"/>
-        <v>0.22382459557595716</v>
+        <f t="shared" si="50"/>
+        <v>0.51749057858567948</v>
       </c>
       <c r="AD67" s="1">
-        <f t="shared" ref="AD67" si="75">AD55/AD31</f>
-        <v>4.8363846427980015E-2</v>
+        <f t="shared" ref="AD67" si="62">AD55/AD30</f>
+        <v>0.24691070179529029</v>
       </c>
       <c r="AH67" s="1">
-        <f t="shared" ref="AH67:AJ67" si="76">AH55/AH31</f>
-        <v>6.3418629420194161E-2</v>
+        <f t="shared" ref="AH67:AJ67" si="63">AH55/AH30</f>
+        <v>0.25347506132461162</v>
       </c>
       <c r="AI67" s="1">
-        <f t="shared" si="76"/>
-        <v>4.836568787269116E-2</v>
+        <f t="shared" si="63"/>
+        <v>0.15661103979460847</v>
       </c>
       <c r="AJ67" s="1">
-        <f t="shared" si="76"/>
-        <v>6.9469831361988893E-2</v>
+        <f t="shared" si="63"/>
+        <v>0.25950413223140495</v>
       </c>
       <c r="AM67" s="1">
-        <f t="shared" ref="AM67:AO67" si="77">AM55/AM31</f>
-        <v>5.1146603691504561E-2</v>
+        <f t="shared" ref="AM67:AO67" si="64">AM55/AM30</f>
+        <v>0.24286612193588936</v>
       </c>
       <c r="AN67" s="1">
-        <f t="shared" si="77"/>
-        <v>5.703157110200846E-2</v>
+        <f t="shared" si="64"/>
+        <v>0.28793256433007985</v>
       </c>
       <c r="AO67" s="1">
-        <f t="shared" si="77"/>
-        <v>4.6967702107260006E-2</v>
+        <f t="shared" si="64"/>
+        <v>0.23508545630441793</v>
       </c>
       <c r="AS67" s="1">
-        <f t="shared" ref="AS67:AX67" si="78">AS55/AS31</f>
-        <v>7.3643727513501983E-2</v>
+        <f t="shared" ref="AS67:AX67" si="65">AS55/AS30</f>
+        <v>0.31255016263253499</v>
       </c>
       <c r="AT67" s="1">
-        <f t="shared" si="78"/>
-        <v>1.5072094858913004E-2</v>
+        <f t="shared" si="65"/>
+        <v>0.26026380676513539</v>
       </c>
       <c r="AV67" s="1">
-        <f t="shared" si="78"/>
-        <v>2.3194784538741697E-2</v>
+        <f t="shared" si="65"/>
+        <v>0.62906251274313918</v>
       </c>
       <c r="AW67" s="1">
-        <f t="shared" si="78"/>
-        <v>2.8693675781735581E-2</v>
+        <f t="shared" si="65"/>
+        <v>0.38880396516583288</v>
       </c>
       <c r="AX67" s="1">
-        <f t="shared" si="78"/>
-        <v>4.7560236365153621E-2</v>
+        <f t="shared" si="65"/>
+        <v>0.30286010541778274</v>
       </c>
       <c r="BA67" s="1">
-        <f t="shared" ref="BA67:BI67" si="79">BA55/BA31</f>
-        <v>0.10112426307161743</v>
+        <f t="shared" ref="BA67:BI67" si="66">BA55/BA30</f>
+        <v>0.43525651908746255</v>
       </c>
       <c r="BB67" s="1">
-        <f t="shared" si="79"/>
-        <v>1.7057270396489143E-2</v>
+        <f t="shared" si="66"/>
+        <v>8.180047538022793E-2</v>
       </c>
       <c r="BC67" s="1">
-        <f t="shared" si="79"/>
-        <v>6.9897279969655668E-2</v>
+        <f t="shared" si="66"/>
+        <v>0.38557729127464824</v>
       </c>
       <c r="BD67" s="1">
-        <f t="shared" si="79"/>
-        <v>5.1970503376922932E-2</v>
+        <f t="shared" si="66"/>
+        <v>0.91464338543114954</v>
       </c>
       <c r="BE67" s="1">
-        <f t="shared" si="79"/>
-        <v>3.4225368801946841E-2</v>
+        <f t="shared" si="66"/>
+        <v>0.67388712205804624</v>
       </c>
       <c r="BF67" s="1">
-        <f t="shared" si="79"/>
-        <v>5.3572899103777993E-2</v>
+        <f t="shared" si="66"/>
+        <v>0.87905325903471132</v>
       </c>
       <c r="BG67" s="1">
-        <f t="shared" si="79"/>
-        <v>6.4705068137043922E-2</v>
+        <f t="shared" si="66"/>
+        <v>0.36253413021601677</v>
       </c>
       <c r="BH67" s="1">
-        <f t="shared" si="79"/>
-        <v>2.8757030080725176E-2</v>
+        <f t="shared" si="66"/>
+        <v>0.3191552964789785</v>
       </c>
       <c r="BI67" s="1">
-        <f t="shared" si="79"/>
-        <v>1.2634885456275889E-2</v>
+        <f t="shared" si="66"/>
+        <v>0.13425861881201231</v>
       </c>
       <c r="BL67" s="1">
-        <f t="shared" ref="BL67:BT67" si="80">BL55/BL31</f>
-        <v>1.9306520763361142E-2</v>
+        <f t="shared" ref="BL67:BT67" si="67">BL55/BL30</f>
+        <v>0.42383789796211396</v>
       </c>
       <c r="BM67" s="1">
-        <f t="shared" si="80"/>
-        <v>3.2199368757375689E-2</v>
+        <f t="shared" si="67"/>
+        <v>0.32060475178971098</v>
       </c>
       <c r="BN67" s="1">
-        <f t="shared" si="80"/>
-        <v>1.9664425536978641E-2</v>
+        <f t="shared" si="67"/>
+        <v>0.13677948977758403</v>
       </c>
       <c r="BO67" s="1">
-        <f t="shared" si="80"/>
-        <v>7.1694970858105032E-3</v>
+        <f t="shared" si="67"/>
+        <v>9.8926607627869353E-2</v>
       </c>
       <c r="BP67" s="1">
-        <f t="shared" si="80"/>
-        <v>6.4705025015845781E-3</v>
+        <f t="shared" si="67"/>
+        <v>0.11236292412887183</v>
       </c>
       <c r="BQ67" s="1">
-        <f t="shared" si="80"/>
-        <v>2.7787238891424534E-2</v>
+        <f t="shared" si="67"/>
+        <v>2.0914304274526585</v>
       </c>
       <c r="BR67" s="1">
-        <f t="shared" si="80"/>
-        <v>6.3533418931450175E-2</v>
+        <f t="shared" si="67"/>
+        <v>2.0696230643800702</v>
       </c>
       <c r="BS67" s="1">
-        <f t="shared" si="80"/>
-        <v>6.9297513304484182E-3</v>
+        <f t="shared" si="67"/>
+        <v>0.1198222622878834</v>
       </c>
       <c r="BT67" s="1">
-        <f t="shared" si="80"/>
-        <v>1.6329766315975536E-2</v>
+        <f t="shared" si="67"/>
+        <v>0.67967226901971733</v>
       </c>
       <c r="BW67" s="1">
-        <f t="shared" ref="BW67:BZ67" si="81">BW55/BW31</f>
-        <v>2.0105998268603176</v>
+        <f t="shared" ref="BW67:BZ67" si="68">BW55/BW30</f>
+        <v>18.704545454545453</v>
       </c>
       <c r="BX67" s="1">
-        <f t="shared" si="81"/>
-        <v>1.6257893510419181</v>
+        <f t="shared" si="68"/>
+        <v>18.125348189415043</v>
       </c>
       <c r="BY67" s="1">
-        <f t="shared" si="81"/>
-        <v>2.6829510619403236</v>
+        <f t="shared" si="68"/>
+        <v>20.382978723404257</v>
       </c>
       <c r="BZ67" s="1">
-        <f t="shared" si="81"/>
-        <v>1.7775249218615981</v>
+        <f t="shared" si="68"/>
+        <v>13.911144578313253</v>
       </c>
       <c r="CD67" s="1">
-        <f t="shared" ref="CD67:CH67" si="82">CD55/CD31</f>
-        <v>0.73908318532734907</v>
+        <f t="shared" ref="CD67:CH67" si="69">CD55/CD30</f>
+        <v>0.81006450200756519</v>
       </c>
       <c r="CE67" s="1">
-        <f t="shared" si="82"/>
-        <v>0.12959035261765139</v>
+        <f t="shared" si="69"/>
+        <v>0.3838710156184294</v>
       </c>
       <c r="CF67" s="1">
-        <f t="shared" si="82"/>
-        <v>0.13385519216800595</v>
+        <f t="shared" si="69"/>
+        <v>0.47792929772878451</v>
       </c>
       <c r="CG67" s="1">
-        <f t="shared" si="82"/>
-        <v>7.2590474836583249E-2</v>
+        <f t="shared" si="69"/>
+        <v>0.31949235018820393</v>
       </c>
       <c r="CH67" s="1">
-        <f t="shared" si="82"/>
-        <v>0.10791765886344991</v>
+        <f t="shared" si="69"/>
+        <v>0.34853727022897113</v>
       </c>
       <c r="CO67" s="1">
-        <f t="shared" ref="CO67:CP67" si="83">CO55/CO31</f>
-        <v>7.8424515663921057E-2</v>
+        <f t="shared" ref="CO67:CP67" si="70">CO55/CO30</f>
+        <v>0.37068677131989441</v>
       </c>
       <c r="CP67" s="1">
-        <f t="shared" si="83"/>
-        <v>5.281140281926322E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.36406710645160328</v>
       </c>
     </row>
     <row r="68" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="35"/>
-        <v>0.39637293714470606</v>
+        <f t="shared" si="34"/>
+        <v>7.6874248296137912E-2</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="35"/>
-        <v>0.10436598732714816</v>
+        <f t="shared" si="34"/>
+        <v>2.5878182404125042E-2</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="35"/>
-        <v>0.23159287096009604</v>
+        <f t="shared" si="34"/>
+        <v>6.0900708561527274E-2</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="35"/>
-        <v>0.22778519689392943</v>
+        <f t="shared" si="34"/>
+        <v>5.8635062436273193E-2</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="35"/>
-        <v>0.23183324041265993</v>
+        <f t="shared" si="34"/>
+        <v>6.5561599299759299E-2</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" ref="I68:M68" si="84">I56/I32</f>
-        <v>0.2417503419190693</v>
+        <f t="shared" ref="I68:M68" si="71">I56/I31</f>
+        <v>5.2395988757416981E-2</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="84"/>
-        <v>0.34731510816902772</v>
+        <f t="shared" si="71"/>
+        <v>8.3718263718263713E-2</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="84"/>
-        <v>0.22106633578568866</v>
+        <f t="shared" si="71"/>
+        <v>5.2652955128829969E-2</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="84"/>
-        <v>0.19626515884234802</v>
+        <f t="shared" si="71"/>
+        <v>4.7749113896298462E-2</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="84"/>
-        <v>0.15828021997282299</v>
+        <f t="shared" si="71"/>
+        <v>4.3929582234187983E-2</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" ref="P68:T68" si="85">P56/P32</f>
-        <v>0.20424334829385618</v>
+        <f t="shared" ref="P68:T68" si="72">P56/P31</f>
+        <v>5.3814930032567584E-2</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="85"/>
-        <v>0.27971561875138856</v>
+        <f t="shared" si="72"/>
+        <v>7.0469623150856323E-2</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="85"/>
-        <v>0.26349515915581251</v>
+        <f t="shared" si="72"/>
+        <v>8.3289695475737169E-2</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="85"/>
-        <v>0.39217478745772011</v>
+        <f t="shared" si="72"/>
+        <v>0.15010373383811335</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" si="85"/>
-        <v>0.20697863446353926</v>
+        <f t="shared" si="72"/>
+        <v>5.8156875894308784E-2</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" ref="W68:Y68" si="86">W56/W32</f>
-        <v>0.21011235955056179</v>
+        <f t="shared" ref="W68:Y68" si="73">W56/W31</f>
+        <v>0.1001981931629343</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" si="86"/>
-        <v>8.1730769230769232E-2</v>
+        <f t="shared" si="73"/>
+        <v>2.5174123956567328E-2</v>
       </c>
       <c r="Y68" s="1">
-        <f t="shared" si="86"/>
-        <v>0.16411378555798686</v>
+        <f t="shared" si="73"/>
+        <v>7.4298994736029703E-2</v>
       </c>
       <c r="AC68" s="1">
-        <f t="shared" si="51"/>
-        <v>0.42757647487254186</v>
+        <f t="shared" si="50"/>
+        <v>0.22382459557595716</v>
       </c>
       <c r="AD68" s="1">
-        <f t="shared" ref="AD68" si="87">AD56/AD32</f>
-        <v>0.1988075803818582</v>
+        <f t="shared" ref="AD68" si="74">AD56/AD31</f>
+        <v>4.8363846427980015E-2</v>
       </c>
       <c r="AH68" s="1">
-        <f t="shared" ref="AH68:AJ68" si="88">AH56/AH32</f>
-        <v>0.12638121546961326</v>
+        <f t="shared" ref="AH68:AJ68" si="75">AH56/AH31</f>
+        <v>6.3418629420194161E-2</v>
       </c>
       <c r="AI68" s="1">
-        <f t="shared" si="88"/>
-        <v>0.12064343163538874</v>
+        <f t="shared" si="75"/>
+        <v>4.836568787269116E-2</v>
       </c>
       <c r="AJ68" s="1">
-        <f t="shared" si="88"/>
-        <v>0.171875</v>
+        <f t="shared" si="75"/>
+        <v>6.9469831361988893E-2</v>
       </c>
       <c r="AM68" s="1">
-        <f t="shared" ref="AM68:AO68" si="89">AM56/AM32</f>
-        <v>0.26795222334148794</v>
+        <f t="shared" ref="AM68:AO68" si="76">AM56/AM31</f>
+        <v>5.1146603691504561E-2</v>
       </c>
       <c r="AN68" s="1">
-        <f t="shared" si="89"/>
-        <v>0.26559304703476483</v>
+        <f t="shared" si="76"/>
+        <v>5.703157110200846E-2</v>
       </c>
       <c r="AO68" s="1">
-        <f t="shared" si="89"/>
-        <v>0.19801980198019803</v>
+        <f t="shared" si="76"/>
+        <v>4.6967702107260006E-2</v>
       </c>
       <c r="AS68" s="1">
-        <f t="shared" ref="AS68:AX68" si="90">AS56/AS32</f>
-        <v>0.33087012747090339</v>
+        <f t="shared" ref="AS68:AX68" si="77">AS56/AS31</f>
+        <v>7.3643727513501983E-2</v>
       </c>
       <c r="AT68" s="1">
-        <f t="shared" si="90"/>
-        <v>0.10062064982232184</v>
-      </c>
-      <c r="AU68" s="1">
-        <f t="shared" si="90"/>
-        <v>0.32082882572777338</v>
+        <f t="shared" si="77"/>
+        <v>1.5072094858913004E-2</v>
       </c>
       <c r="AV68" s="1">
-        <f t="shared" si="90"/>
-        <v>0.14091110886107497</v>
+        <f t="shared" si="77"/>
+        <v>2.3194784538741697E-2</v>
       </c>
       <c r="AW68" s="1">
-        <f t="shared" si="90"/>
-        <v>0.12644620356925385</v>
+        <f t="shared" si="77"/>
+        <v>2.8693675781735581E-2</v>
       </c>
       <c r="AX68" s="1">
-        <f t="shared" si="90"/>
-        <v>0.15073160954099016</v>
+        <f t="shared" si="77"/>
+        <v>4.7560236365153621E-2</v>
       </c>
       <c r="BA68" s="1">
-        <f t="shared" ref="BA68:BI68" si="91">BA56/BA32</f>
-        <v>0.31154457275952691</v>
+        <f t="shared" ref="BA68:BI68" si="78">BA56/BA31</f>
+        <v>0.10112426307161743</v>
       </c>
       <c r="BB68" s="1">
-        <f t="shared" si="91"/>
-        <v>6.0623105959912806E-2</v>
+        <f t="shared" si="78"/>
+        <v>1.7057270396489143E-2</v>
       </c>
       <c r="BC68" s="1">
-        <f t="shared" si="91"/>
-        <v>0.24775281596282173</v>
+        <f t="shared" si="78"/>
+        <v>6.9897279969655668E-2</v>
       </c>
       <c r="BD68" s="1">
-        <f t="shared" si="91"/>
-        <v>0.28548687030201214</v>
+        <f t="shared" si="78"/>
+        <v>5.1970503376922932E-2</v>
       </c>
       <c r="BE68" s="1">
-        <f t="shared" si="91"/>
-        <v>0.22925983115086127</v>
+        <f t="shared" si="78"/>
+        <v>3.4225368801946841E-2</v>
       </c>
       <c r="BF68" s="1">
-        <f t="shared" si="91"/>
-        <v>0.24092688934610224</v>
+        <f t="shared" si="78"/>
+        <v>5.3572899103777993E-2</v>
       </c>
       <c r="BG68" s="1">
-        <f t="shared" si="91"/>
-        <v>0.27121830323981994</v>
+        <f t="shared" si="78"/>
+        <v>6.4705068137043922E-2</v>
       </c>
       <c r="BH68" s="1">
-        <f t="shared" si="91"/>
-        <v>0.20853116149743067</v>
+        <f t="shared" si="78"/>
+        <v>2.8757030080725176E-2</v>
       </c>
       <c r="BI68" s="1">
-        <f t="shared" si="91"/>
-        <v>6.5073448617362251E-2</v>
+        <f t="shared" si="78"/>
+        <v>1.2634885456275889E-2</v>
       </c>
       <c r="BL68" s="1">
-        <f t="shared" ref="BL68:BT68" si="92">BL56/BL32</f>
-        <v>0.17756559083782855</v>
+        <f t="shared" ref="BL68:BT68" si="79">BL56/BL31</f>
+        <v>1.9306520763361142E-2</v>
       </c>
       <c r="BM68" s="1">
-        <f t="shared" si="92"/>
-        <v>0.18955042469918518</v>
+        <f t="shared" si="79"/>
+        <v>3.2199368757375689E-2</v>
       </c>
       <c r="BN68" s="1">
-        <f t="shared" si="92"/>
-        <v>8.1849020551184426E-2</v>
+        <f t="shared" si="79"/>
+        <v>1.9664425536978641E-2</v>
       </c>
       <c r="BO68" s="1">
-        <f t="shared" si="92"/>
-        <v>5.1287067092252038E-2</v>
+        <f t="shared" si="79"/>
+        <v>7.1694970858105032E-3</v>
       </c>
       <c r="BP68" s="1">
-        <f t="shared" si="92"/>
-        <v>3.9267128295557181E-2</v>
+        <f t="shared" si="79"/>
+        <v>6.4705025015845781E-3</v>
       </c>
       <c r="BQ68" s="1">
-        <f t="shared" si="92"/>
-        <v>0.15197091196396462</v>
+        <f t="shared" si="79"/>
+        <v>2.7787238891424534E-2</v>
       </c>
       <c r="BR68" s="1">
-        <f t="shared" si="92"/>
-        <v>0.24581772659932208</v>
+        <f t="shared" si="79"/>
+        <v>6.3533418931450175E-2</v>
       </c>
       <c r="BS68" s="1">
-        <f t="shared" si="92"/>
-        <v>4.7366888391625547E-2</v>
+        <f t="shared" si="79"/>
+        <v>6.9297513304484182E-3</v>
       </c>
       <c r="BT68" s="1">
-        <f t="shared" si="92"/>
-        <v>8.5549617231507516E-2</v>
+        <f t="shared" si="79"/>
+        <v>1.6329766315975536E-2</v>
       </c>
       <c r="BW68" s="1">
-        <f t="shared" ref="BW68:CA68" si="93">BW56/BW32</f>
-        <v>0.65</v>
+        <f t="shared" ref="BW68:BZ68" si="80">BW56/BW31</f>
+        <v>2.0105998268603176</v>
       </c>
       <c r="BX68" s="1">
-        <f t="shared" si="93"/>
-        <v>22.045454545454547</v>
+        <f t="shared" si="80"/>
+        <v>1.6257893510419181</v>
       </c>
       <c r="BY68" s="1">
-        <f t="shared" si="93"/>
-        <v>23.31322505800464</v>
+        <f t="shared" si="80"/>
+        <v>2.6829510619403236</v>
       </c>
       <c r="BZ68" s="1">
-        <f t="shared" si="93"/>
-        <v>22.241030358785647</v>
-      </c>
-      <c r="CA68" s="1">
-        <f t="shared" si="93"/>
-        <v>13.828112449799196</v>
+        <f t="shared" si="80"/>
+        <v>1.7775249218615981</v>
       </c>
       <c r="CD68" s="1">
-        <f t="shared" ref="CD68:CH68" si="94">CD56/CD32</f>
-        <v>0.61614511331741451</v>
+        <f t="shared" ref="CD68:CH68" si="81">CD56/CD31</f>
+        <v>0.73908318532734907</v>
       </c>
       <c r="CE68" s="1">
-        <f t="shared" si="94"/>
-        <v>0.1477770140722787</v>
+        <f t="shared" si="81"/>
+        <v>0.12959035261765139</v>
       </c>
       <c r="CF68" s="1">
-        <f t="shared" si="94"/>
-        <v>0.11715030377268236</v>
+        <f t="shared" si="81"/>
+        <v>0.13385519216800595</v>
       </c>
       <c r="CG68" s="1">
-        <f t="shared" si="94"/>
-        <v>0.1240321407567485</v>
+        <f t="shared" si="81"/>
+        <v>7.2590474836583249E-2</v>
       </c>
       <c r="CH68" s="1">
-        <f t="shared" si="94"/>
-        <v>0.14746004936988436</v>
-      </c>
-      <c r="CN68" s="1">
-        <f t="shared" ref="CN68:CP68" si="95">CN56/CN32</f>
-        <v>41.161622807017544</v>
+        <f t="shared" si="81"/>
+        <v>0.10791765886344991</v>
       </c>
       <c r="CO68" s="1">
-        <f t="shared" si="95"/>
-        <v>0.27768929352828037</v>
+        <f t="shared" ref="CO68:CP68" si="82">CO56/CO31</f>
+        <v>7.8424515663921057E-2</v>
       </c>
       <c r="CP68" s="1">
-        <f t="shared" si="95"/>
-        <v>0.16816592596826668</v>
+        <f t="shared" si="82"/>
+        <v>5.281140281926322E-2</v>
       </c>
     </row>
     <row r="69" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="35"/>
-        <v>8.9850736561412625E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.39637293714470606</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="35"/>
-        <v>2.4841243181854534E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.10436598732714816</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="35"/>
-        <v>6.0548629188168855E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.23159287096009604</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="35"/>
-        <v>4.7199550155911867E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.22778519689392943</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="35"/>
-        <v>5.3421527173237164E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.23183324041265993</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" ref="I69:M69" si="96">I57/I33</f>
-        <v>5.4567584015146393E-2</v>
+        <f t="shared" ref="I69:M69" si="83">I57/I32</f>
+        <v>0.2417503419190693</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="96"/>
-        <v>7.7528053447493014E-2</v>
+        <f t="shared" si="83"/>
+        <v>0.34731510816902772</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="96"/>
-        <v>4.4740296872608956E-2</v>
+        <f t="shared" si="83"/>
+        <v>0.22106633578568866</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="96"/>
-        <v>4.8474260213087601E-2</v>
+        <f t="shared" si="83"/>
+        <v>0.19626515884234802</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="96"/>
-        <v>3.9408826219575283E-2</v>
+        <f t="shared" si="83"/>
+        <v>0.15828021997282299</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" ref="P69:T69" si="97">P57/P33</f>
-        <v>4.4140245124603773E-2</v>
+        <f t="shared" ref="P69:T69" si="84">P57/P32</f>
+        <v>0.20424334829385618</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="97"/>
-        <v>6.2696909088030564E-2</v>
+        <f t="shared" si="84"/>
+        <v>0.27971561875138856</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="97"/>
-        <v>7.0767820059872172E-2</v>
+        <f t="shared" si="84"/>
+        <v>0.26349515915581251</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="97"/>
-        <v>0.11211152493565761</v>
+        <f t="shared" si="84"/>
+        <v>0.39217478745772011</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="97"/>
-        <v>5.4309915774271592E-2</v>
+        <f t="shared" si="84"/>
+        <v>0.20697863446353926</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" ref="W69:Y69" si="98">W57/W33</f>
-        <v>5.8563548680578954E-2</v>
+        <f t="shared" ref="W69:Y69" si="85">W57/W32</f>
+        <v>0.21011235955056179</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" si="98"/>
-        <v>2.2897442281014601E-2</v>
+        <f t="shared" si="85"/>
+        <v>8.1730769230769232E-2</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" si="98"/>
-        <v>5.4159177704879206E-2</v>
+        <f t="shared" si="85"/>
+        <v>0.16411378555798686</v>
       </c>
       <c r="AC69" s="1">
-        <f t="shared" si="51"/>
-        <v>0.12910706327952684</v>
+        <f t="shared" si="50"/>
+        <v>0.42757647487254186</v>
       </c>
       <c r="AD69" s="1">
-        <f t="shared" ref="AD69" si="99">AD57/AD33</f>
-        <v>4.7004778515668692E-2</v>
+        <f t="shared" ref="AD69" si="86">AD57/AD32</f>
+        <v>0.1988075803818582</v>
       </c>
       <c r="AH69" s="1">
-        <f t="shared" ref="AH69:AJ69" si="100">AH57/AH33</f>
-        <v>3.2432336603461294E-2</v>
+        <f t="shared" ref="AH69:AJ69" si="87">AH57/AH32</f>
+        <v>0.12638121546961326</v>
       </c>
       <c r="AI69" s="1">
-        <f t="shared" si="100"/>
-        <v>3.1775260537504547E-2</v>
+        <f t="shared" si="87"/>
+        <v>0.12064343163538874</v>
       </c>
       <c r="AJ69" s="1">
-        <f t="shared" si="100"/>
-        <v>4.6550592187974096E-2</v>
+        <f t="shared" si="87"/>
+        <v>0.171875</v>
       </c>
       <c r="AM69" s="1">
-        <f t="shared" ref="AM69:AO69" si="101">AM57/AM33</f>
-        <v>5.5430199967025459E-2</v>
+        <f t="shared" ref="AM69:AO69" si="88">AM57/AM32</f>
+        <v>0.26795222334148794</v>
       </c>
       <c r="AN69" s="1">
-        <f t="shared" si="101"/>
-        <v>5.3335753099168645E-2</v>
+        <f t="shared" si="88"/>
+        <v>0.26559304703476483</v>
       </c>
       <c r="AO69" s="1">
-        <f t="shared" si="101"/>
-        <v>5.010602232918665E-2</v>
+        <f t="shared" si="88"/>
+        <v>0.19801980198019803</v>
       </c>
       <c r="AS69" s="1">
-        <f t="shared" ref="AS69:AX69" si="102">AS57/AS33</f>
-        <v>7.0322172810669589E-2</v>
+        <f t="shared" ref="AS69:AX69" si="89">AS57/AS32</f>
+        <v>0.33087012747090339</v>
       </c>
       <c r="AT69" s="1">
-        <f t="shared" si="102"/>
-        <v>9.6007660531836764E-3</v>
+        <f t="shared" si="89"/>
+        <v>0.10062064982232184</v>
       </c>
       <c r="AU69" s="1">
-        <f t="shared" si="102"/>
-        <v>2.9669133327577285E-2</v>
+        <f t="shared" si="89"/>
+        <v>0.32082882572777338</v>
       </c>
       <c r="AV69" s="1">
-        <f t="shared" si="102"/>
-        <v>1.0515683162492575E-2</v>
+        <f t="shared" si="89"/>
+        <v>0.14091110886107497</v>
       </c>
       <c r="AW69" s="1">
-        <f t="shared" si="102"/>
-        <v>1.5873072210577759E-2</v>
+        <f t="shared" si="89"/>
+        <v>0.12644620356925385</v>
       </c>
       <c r="AX69" s="1">
-        <f t="shared" si="102"/>
-        <v>3.3463141011365279E-2</v>
+        <f t="shared" si="89"/>
+        <v>0.15073160954099016</v>
       </c>
       <c r="BA69" s="1">
-        <f t="shared" ref="BA69:BI69" si="103">BA57/BA33</f>
-        <v>7.226031721631429E-2</v>
+        <f t="shared" ref="BA69:BI69" si="90">BA57/BA32</f>
+        <v>0.31154457275952691</v>
       </c>
       <c r="BB69" s="1">
-        <f t="shared" si="103"/>
-        <v>1.5133905100086383E-2</v>
+        <f t="shared" si="90"/>
+        <v>6.0623105959912806E-2</v>
       </c>
       <c r="BC69" s="1">
-        <f t="shared" si="103"/>
-        <v>4.8674566952081104E-2</v>
+        <f t="shared" si="90"/>
+        <v>0.24775281596282173</v>
       </c>
       <c r="BD69" s="1">
-        <f t="shared" si="103"/>
-        <v>2.3449721575039308E-2</v>
+        <f t="shared" si="90"/>
+        <v>0.28548687030201214</v>
       </c>
       <c r="BE69" s="1">
-        <f t="shared" si="103"/>
-        <v>2.1237400660680878E-2</v>
+        <f t="shared" si="90"/>
+        <v>0.22925983115086127</v>
       </c>
       <c r="BF69" s="1">
-        <f t="shared" si="103"/>
-        <v>2.6250770383888841E-2</v>
+        <f t="shared" si="90"/>
+        <v>0.24092688934610224</v>
       </c>
       <c r="BG69" s="1">
-        <f t="shared" si="103"/>
-        <v>4.428690664415081E-2</v>
+        <f t="shared" si="90"/>
+        <v>0.27121830323981994</v>
       </c>
       <c r="BH69" s="1">
-        <f t="shared" si="103"/>
-        <v>2.1134170234380668E-2</v>
+        <f t="shared" si="90"/>
+        <v>0.20853116149743067</v>
       </c>
       <c r="BI69" s="1">
-        <f t="shared" si="103"/>
-        <v>7.7896504619513352E-3</v>
+        <f t="shared" si="90"/>
+        <v>6.5073448617362251E-2</v>
       </c>
       <c r="BL69" s="1">
-        <f t="shared" ref="BL69:BT69" si="104">BL57/BL33</f>
-        <v>1.4714510700058671E-2</v>
+        <f t="shared" ref="BL69:BT69" si="91">BL57/BL32</f>
+        <v>0.17756559083782855</v>
       </c>
       <c r="BM69" s="1">
-        <f t="shared" si="104"/>
-        <v>2.3740186121635361E-2</v>
+        <f t="shared" si="91"/>
+        <v>0.18955042469918518</v>
       </c>
       <c r="BN69" s="1">
-        <f t="shared" si="104"/>
-        <v>1.2614025812545495E-2</v>
+        <f t="shared" si="91"/>
+        <v>8.1849020551184426E-2</v>
       </c>
       <c r="BO69" s="1">
-        <f t="shared" si="104"/>
-        <v>6.0560654941194253E-3</v>
+        <f t="shared" si="91"/>
+        <v>5.1287067092252038E-2</v>
       </c>
       <c r="BP69" s="1">
-        <f t="shared" si="104"/>
-        <v>3.5028759056151696E-3</v>
+        <f t="shared" si="91"/>
+        <v>3.9267128295557181E-2</v>
       </c>
       <c r="BQ69" s="1">
-        <f t="shared" si="104"/>
-        <v>1.0066651642120238E-2</v>
+        <f t="shared" si="91"/>
+        <v>0.15197091196396462</v>
       </c>
       <c r="BR69" s="1">
-        <f t="shared" si="104"/>
-        <v>2.1176956811241477E-2</v>
+        <f t="shared" si="91"/>
+        <v>0.24581772659932208</v>
       </c>
       <c r="BS69" s="1">
-        <f t="shared" si="104"/>
-        <v>5.3488548605736801E-3</v>
+        <f t="shared" si="91"/>
+        <v>4.7366888391625547E-2</v>
       </c>
       <c r="BT69" s="1">
-        <f t="shared" si="104"/>
-        <v>9.6798282928024851E-2</v>
+        <f t="shared" si="91"/>
+        <v>8.5549617231507516E-2</v>
       </c>
       <c r="BW69" s="1">
-        <f t="shared" ref="BW69:CA69" si="105">BW57/BW33</f>
-        <v>0</v>
+        <f t="shared" ref="BW69:CA69" si="92">BW57/BW32</f>
+        <v>0.65</v>
       </c>
       <c r="BX69" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>22.045454545454547</v>
       </c>
       <c r="BY69" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>23.31322505800464</v>
       </c>
       <c r="BZ69" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>22.241030358785647</v>
       </c>
       <c r="CA69" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>13.828112449799196</v>
       </c>
       <c r="CD69" s="1">
-        <f t="shared" ref="CD69:CH69" si="106">CD57/CD33</f>
-        <v>0.49790561081884099</v>
+        <f t="shared" ref="CD69:CH69" si="93">CD57/CD32</f>
+        <v>0.61614511331741451</v>
       </c>
       <c r="CE69" s="1">
-        <f t="shared" si="106"/>
-        <v>4.4471568032406018E-2</v>
+        <f t="shared" si="93"/>
+        <v>0.1477770140722787</v>
       </c>
       <c r="CF69" s="1">
-        <f t="shared" si="106"/>
-        <v>3.4975977785465705E-2</v>
+        <f t="shared" si="93"/>
+        <v>0.11715030377268236</v>
       </c>
       <c r="CG69" s="1">
-        <f t="shared" si="106"/>
-        <v>3.4069680002305723E-2</v>
+        <f t="shared" si="93"/>
+        <v>0.1240321407567485</v>
       </c>
       <c r="CH69" s="1">
-        <f t="shared" si="106"/>
-        <v>4.2937213383909864E-2</v>
+        <f t="shared" si="93"/>
+        <v>0.14746004936988436</v>
       </c>
       <c r="CN69" s="1">
-        <f t="shared" ref="CN69:CP69" si="107">CN57/CN33</f>
-        <v>0.11972151704958604</v>
+        <f t="shared" ref="CN69:CP69" si="94">CN57/CN32</f>
+        <v>41.161622807017544</v>
       </c>
       <c r="CO69" s="1">
-        <f t="shared" si="107"/>
-        <v>5.6520152394012611E-2</v>
+        <f t="shared" si="94"/>
+        <v>0.27768929352828037</v>
       </c>
       <c r="CP69" s="1">
-        <f t="shared" si="107"/>
-        <v>3.1856897649865601E-2</v>
+        <f t="shared" si="94"/>
+        <v>0.16816592596826668</v>
       </c>
     </row>
     <row r="70" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="35"/>
-        <v>0.21388785740809507</v>
+        <f t="shared" si="34"/>
+        <v>8.9850736561412625E-2</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="35"/>
-        <v>9.5984703632887178E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.4841243181854534E-2</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="35"/>
-        <v>8.1494057724957561E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.0548629188168855E-2</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="35"/>
-        <v>0.18077427821522307</v>
+        <f t="shared" si="34"/>
+        <v>4.7199550155911867E-2</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="35"/>
-        <v>0.15685650652243077</v>
+        <f t="shared" si="34"/>
+        <v>5.3421527173237164E-2</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" ref="I70:M70" si="108">I58/I34</f>
-        <v>0.12322412293418382</v>
+        <f t="shared" ref="I70:M70" si="95">I58/I33</f>
+        <v>5.4567584015146393E-2</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="108"/>
-        <v>0.10058966354491848</v>
+        <f t="shared" si="95"/>
+        <v>7.7528053447493014E-2</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="108"/>
-        <v>2.8415300546448086E-2</v>
+        <f t="shared" si="95"/>
+        <v>4.4740296872608956E-2</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="108"/>
-        <v>0.13851802403204272</v>
+        <f t="shared" si="95"/>
+        <v>4.8474260213087601E-2</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="108"/>
-        <v>0.14135782223679896</v>
+        <f t="shared" si="95"/>
+        <v>3.9408826219575283E-2</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" ref="P70:T70" si="109">P58/P34</f>
-        <v>0.17967138960952569</v>
+        <f t="shared" ref="P70:T70" si="96">P58/P33</f>
+        <v>4.4140245124603773E-2</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="109"/>
-        <v>0.15444015444015444</v>
+        <f t="shared" si="96"/>
+        <v>6.2696909088030564E-2</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="109"/>
-        <v>0.1962059620596206</v>
+        <f t="shared" si="96"/>
+        <v>7.0767820059872172E-2</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="109"/>
-        <v>0.21675191815856776</v>
+        <f t="shared" si="96"/>
+        <v>0.11211152493565761</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="109"/>
-        <v>0.15549753408761241</v>
+        <f t="shared" si="96"/>
+        <v>5.4309915774271592E-2</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" ref="W70:Y70" si="110">W58/W34</f>
-        <v>0.12489762489762489</v>
+        <f t="shared" ref="W70:Y70" si="97">W58/W33</f>
+        <v>5.8563548680578954E-2</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="110"/>
-        <v>5.1210428305400367E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.2897442281014601E-2</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="110"/>
-        <v>9.2283628779979143E-2</v>
+        <f t="shared" si="97"/>
+        <v>5.4159177704879206E-2</v>
       </c>
       <c r="AC70" s="1">
-        <f t="shared" si="51"/>
-        <v>0.29661551397939878</v>
+        <f t="shared" si="50"/>
+        <v>0.12910706327952684</v>
       </c>
       <c r="AD70" s="1">
-        <f t="shared" ref="AD70" si="111">AD58/AD34</f>
-        <v>0.12630642650655993</v>
+        <f t="shared" ref="AD70" si="98">AD58/AD33</f>
+        <v>4.7004778515668692E-2</v>
       </c>
       <c r="AH70" s="1">
-        <f t="shared" ref="AH70:AJ70" si="112">AH58/AH34</f>
-        <v>6.5675023755573422E-2</v>
+        <f t="shared" ref="AH70:AJ70" si="99">AH58/AH33</f>
+        <v>3.2432336603461294E-2</v>
       </c>
       <c r="AI70" s="1">
-        <f t="shared" si="112"/>
-        <v>8.4433164128595597E-2</v>
+        <f t="shared" si="99"/>
+        <v>3.1775260537504547E-2</v>
       </c>
       <c r="AJ70" s="1">
-        <f t="shared" si="112"/>
-        <v>0.14367540726544126</v>
+        <f t="shared" si="99"/>
+        <v>4.6550592187974096E-2</v>
       </c>
       <c r="AM70" s="1">
-        <f t="shared" ref="AM70:AO70" si="113">AM58/AM34</f>
-        <v>0.16972001382647769</v>
+        <f t="shared" ref="AM70:AO70" si="100">AM58/AM33</f>
+        <v>5.5430199967025459E-2</v>
       </c>
       <c r="AN70" s="1">
-        <f t="shared" si="113"/>
-        <v>0.19497716894977168</v>
+        <f t="shared" si="100"/>
+        <v>5.3335753099168645E-2</v>
       </c>
       <c r="AO70" s="1">
-        <f t="shared" si="113"/>
-        <v>0.15966850828729282</v>
+        <f t="shared" si="100"/>
+        <v>5.010602232918665E-2</v>
+      </c>
+      <c r="AS70" s="1">
+        <f t="shared" ref="AS70:AX70" si="101">AS58/AS33</f>
+        <v>7.0322172810669589E-2</v>
+      </c>
+      <c r="AT70" s="1">
+        <f t="shared" si="101"/>
+        <v>9.6007660531836764E-3</v>
+      </c>
+      <c r="AU70" s="1">
+        <f t="shared" si="101"/>
+        <v>2.9669133327577285E-2</v>
+      </c>
+      <c r="AV70" s="1">
+        <f t="shared" si="101"/>
+        <v>1.0515683162492575E-2</v>
+      </c>
+      <c r="AW70" s="1">
+        <f t="shared" si="101"/>
+        <v>1.5873072210577759E-2</v>
+      </c>
+      <c r="AX70" s="1">
+        <f t="shared" si="101"/>
+        <v>3.3463141011365279E-2</v>
       </c>
       <c r="BA70" s="1">
-        <f t="shared" ref="BA70:BI70" si="114">BA58/BA34</f>
-        <v>0.22580645161290325</v>
+        <f t="shared" ref="BA70:BI70" si="102">BA58/BA33</f>
+        <v>7.226031721631429E-2</v>
       </c>
       <c r="BB70" s="1">
-        <f t="shared" si="114"/>
-        <v>3.5312544496653851E-2</v>
+        <f t="shared" si="102"/>
+        <v>1.5133905100086383E-2</v>
       </c>
       <c r="BC70" s="1">
-        <f t="shared" si="114"/>
-        <v>0.15864385802059852</v>
+        <f t="shared" si="102"/>
+        <v>4.8674566952081104E-2</v>
       </c>
       <c r="BD70" s="1">
-        <f t="shared" si="114"/>
-        <v>0.21690232050985983</v>
+        <f t="shared" si="102"/>
+        <v>2.3449721575039308E-2</v>
       </c>
       <c r="BE70" s="1">
-        <f t="shared" si="114"/>
-        <v>0.16950095211315364</v>
+        <f t="shared" si="102"/>
+        <v>2.1237400660680878E-2</v>
       </c>
       <c r="BF70" s="1">
-        <f t="shared" si="114"/>
-        <v>0.15748872143888137</v>
+        <f t="shared" si="102"/>
+        <v>2.6250770383888841E-2</v>
       </c>
       <c r="BG70" s="1">
-        <f t="shared" si="114"/>
-        <v>0.17327506899724013</v>
+        <f t="shared" si="102"/>
+        <v>4.428690664415081E-2</v>
       </c>
       <c r="BH70" s="1">
-        <f t="shared" si="114"/>
-        <v>0.15117842203952112</v>
+        <f t="shared" si="102"/>
+        <v>2.1134170234380668E-2</v>
       </c>
       <c r="BI70" s="1">
-        <f t="shared" si="114"/>
-        <v>4.7510867192211502E-2</v>
+        <f t="shared" si="102"/>
+        <v>7.7896504619513352E-3</v>
       </c>
       <c r="BL70" s="1">
-        <f t="shared" ref="BL70:BT70" si="115">BL58/BL34</f>
-        <v>0.17342762159149869</v>
+        <f t="shared" ref="BL70:BT70" si="103">BL58/BL33</f>
+        <v>1.4714510700058671E-2</v>
       </c>
       <c r="BM70" s="1">
-        <f t="shared" si="115"/>
-        <v>0.19258180304843156</v>
+        <f t="shared" si="103"/>
+        <v>2.3740186121635361E-2</v>
       </c>
       <c r="BN70" s="1">
-        <f t="shared" si="115"/>
-        <v>6.9090909090909092E-2</v>
+        <f t="shared" si="103"/>
+        <v>1.2614025812545495E-2</v>
       </c>
       <c r="BO70" s="1">
-        <f t="shared" si="115"/>
-        <v>0.14198591336213418</v>
+        <f t="shared" si="103"/>
+        <v>6.0560654941194253E-3</v>
       </c>
       <c r="BP70" s="1">
-        <f t="shared" si="115"/>
-        <v>0.11649107665240648</v>
+        <f t="shared" si="103"/>
+        <v>3.5028759056151696E-3</v>
       </c>
       <c r="BQ70" s="1">
-        <f t="shared" si="115"/>
-        <v>0.46797624000779015</v>
+        <f t="shared" si="103"/>
+        <v>1.0066651642120238E-2</v>
       </c>
       <c r="BR70" s="1">
-        <f t="shared" si="115"/>
-        <v>0.24088281376627588</v>
+        <f t="shared" si="103"/>
+        <v>2.1176956811241477E-2</v>
       </c>
       <c r="BS70" s="1">
-        <f t="shared" si="115"/>
-        <v>9.4946401225114843E-2</v>
+        <f t="shared" si="103"/>
+        <v>5.3488548605736801E-3</v>
       </c>
       <c r="BT70" s="1">
-        <f t="shared" si="115"/>
-        <v>0.19749456706532828</v>
+        <f t="shared" si="103"/>
+        <v>9.6798282928024851E-2</v>
       </c>
       <c r="BW70" s="1">
-        <f t="shared" ref="BW70:CA70" si="116">BW58/BW34</f>
-        <v>0.22409586056644878</v>
+        <f t="shared" ref="BW70:CA70" si="104">BW58/BW33</f>
+        <v>0</v>
       </c>
       <c r="BX70" s="1">
-        <f t="shared" si="116"/>
-        <v>0.57910104042439448</v>
+        <f t="shared" si="104"/>
+        <v>0</v>
       </c>
       <c r="BY70" s="1">
-        <f t="shared" si="116"/>
-        <v>0.32661273765039212</v>
+        <f t="shared" si="104"/>
+        <v>0</v>
       </c>
       <c r="BZ70" s="1">
-        <f t="shared" si="116"/>
-        <v>0.62360379346680717</v>
+        <f t="shared" si="104"/>
+        <v>0</v>
       </c>
       <c r="CA70" s="1">
-        <f t="shared" si="116"/>
-        <v>0.65619665414817341</v>
+        <f t="shared" si="104"/>
+        <v>0</v>
       </c>
       <c r="CD70" s="1">
-        <f t="shared" ref="CD70:CH70" si="117">CD58/CD34</f>
-        <v>0.13173292032352435</v>
+        <f t="shared" ref="CD70:CH70" si="105">CD58/CD33</f>
+        <v>0.49790561081884099</v>
       </c>
       <c r="CE70" s="1">
-        <f t="shared" si="117"/>
-        <v>0.40479115479115479</v>
+        <f t="shared" si="105"/>
+        <v>4.4471568032406018E-2</v>
       </c>
       <c r="CF70" s="1">
-        <f t="shared" si="117"/>
-        <v>6.6095132743362831E-2</v>
+        <f t="shared" si="105"/>
+        <v>3.4975977785465705E-2</v>
       </c>
       <c r="CG70" s="1">
-        <f t="shared" si="117"/>
-        <v>5.5790363482671176E-2</v>
+        <f t="shared" si="105"/>
+        <v>3.4069680002305723E-2</v>
       </c>
       <c r="CH70" s="1">
-        <f t="shared" si="117"/>
-        <v>8.8684161548483145E-2</v>
+        <f t="shared" si="105"/>
+        <v>4.2937213383909864E-2</v>
       </c>
       <c r="CN70" s="1">
-        <f t="shared" ref="CN70:CP70" si="118">CN58/CN34</f>
-        <v>0.62096774193548387</v>
+        <f t="shared" ref="CN70:CP70" si="106">CN58/CN33</f>
+        <v>0.11972151704958604</v>
       </c>
       <c r="CO70" s="1">
-        <f t="shared" si="118"/>
-        <v>0.21416712783619257</v>
+        <f t="shared" si="106"/>
+        <v>5.6520152394012611E-2</v>
       </c>
       <c r="CP70" s="1">
-        <f t="shared" si="118"/>
-        <v>0.14684095860566448</v>
+        <f t="shared" si="106"/>
+        <v>3.1856897649865601E-2</v>
       </c>
     </row>
     <row r="71" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="34"/>
+        <v>0.21388785740809507</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="34"/>
+        <v>9.5984703632887178E-2</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="34"/>
+        <v>8.1494057724957561E-2</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="34"/>
+        <v>0.18077427821522307</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="34"/>
+        <v>0.15685650652243077</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" ref="I71:M71" si="107">I59/I34</f>
+        <v>0.12322412293418382</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="107"/>
+        <v>0.10058966354491848</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="107"/>
+        <v>2.8415300546448086E-2</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" si="107"/>
+        <v>0.13851802403204272</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="107"/>
+        <v>0.14135782223679896</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" ref="P71:T71" si="119">P59/P35</f>
+        <f t="shared" ref="P71:T71" si="108">P59/P34</f>
+        <v>0.17967138960952569</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="108"/>
+        <v>0.15444015444015444</v>
+      </c>
+      <c r="R71" s="1">
+        <f t="shared" si="108"/>
+        <v>0.1962059620596206</v>
+      </c>
+      <c r="S71" s="1">
+        <f t="shared" si="108"/>
+        <v>0.21675191815856776</v>
+      </c>
+      <c r="T71" s="1">
+        <f t="shared" si="108"/>
+        <v>0.15549753408761241</v>
+      </c>
+      <c r="W71" s="1">
+        <f t="shared" ref="W71:Y71" si="109">W59/W34</f>
+        <v>0.12489762489762489</v>
+      </c>
+      <c r="X71" s="1">
+        <f t="shared" si="109"/>
+        <v>5.1210428305400367E-2</v>
+      </c>
+      <c r="Y71" s="1">
+        <f t="shared" si="109"/>
+        <v>9.2283628779979143E-2</v>
+      </c>
+      <c r="AC71" s="1">
+        <f t="shared" si="50"/>
+        <v>0.29661551397939878</v>
+      </c>
+      <c r="AD71" s="1">
+        <f t="shared" ref="AD71" si="110">AD59/AD34</f>
+        <v>0.12630642650655993</v>
+      </c>
+      <c r="AH71" s="1">
+        <f t="shared" ref="AH71:AJ71" si="111">AH59/AH34</f>
+        <v>6.5675023755573422E-2</v>
+      </c>
+      <c r="AI71" s="1">
+        <f t="shared" si="111"/>
+        <v>8.4433164128595597E-2</v>
+      </c>
+      <c r="AJ71" s="1">
+        <f t="shared" si="111"/>
+        <v>0.14367540726544126</v>
+      </c>
+      <c r="AM71" s="1">
+        <f t="shared" ref="AM71:AO71" si="112">AM59/AM34</f>
+        <v>0.16972001382647769</v>
+      </c>
+      <c r="AN71" s="1">
+        <f t="shared" si="112"/>
+        <v>0.19497716894977168</v>
+      </c>
+      <c r="AO71" s="1">
+        <f t="shared" si="112"/>
+        <v>0.15966850828729282</v>
+      </c>
+      <c r="BA71" s="1">
+        <f t="shared" ref="BA71:BI71" si="113">BA59/BA34</f>
+        <v>0.22580645161290325</v>
+      </c>
+      <c r="BB71" s="1">
+        <f t="shared" si="113"/>
+        <v>3.5312544496653851E-2</v>
+      </c>
+      <c r="BC71" s="1">
+        <f t="shared" si="113"/>
+        <v>0.15864385802059852</v>
+      </c>
+      <c r="BD71" s="1">
+        <f t="shared" si="113"/>
+        <v>0.21690232050985983</v>
+      </c>
+      <c r="BE71" s="1">
+        <f t="shared" si="113"/>
+        <v>0.16950095211315364</v>
+      </c>
+      <c r="BF71" s="1">
+        <f t="shared" si="113"/>
+        <v>0.15748872143888137</v>
+      </c>
+      <c r="BG71" s="1">
+        <f t="shared" si="113"/>
+        <v>0.17327506899724013</v>
+      </c>
+      <c r="BH71" s="1">
+        <f t="shared" si="113"/>
+        <v>0.15117842203952112</v>
+      </c>
+      <c r="BI71" s="1">
+        <f t="shared" si="113"/>
+        <v>4.7510867192211502E-2</v>
+      </c>
+      <c r="BL71" s="1">
+        <f t="shared" ref="BL71:BT71" si="114">BL59/BL34</f>
+        <v>0.17342762159149869</v>
+      </c>
+      <c r="BM71" s="1">
+        <f t="shared" si="114"/>
+        <v>0.19258180304843156</v>
+      </c>
+      <c r="BN71" s="1">
+        <f t="shared" si="114"/>
+        <v>6.9090909090909092E-2</v>
+      </c>
+      <c r="BO71" s="1">
+        <f t="shared" si="114"/>
+        <v>0.14198591336213418</v>
+      </c>
+      <c r="BP71" s="1">
+        <f t="shared" si="114"/>
+        <v>0.11649107665240648</v>
+      </c>
+      <c r="BQ71" s="1">
+        <f t="shared" si="114"/>
+        <v>0.46797624000779015</v>
+      </c>
+      <c r="BR71" s="1">
+        <f t="shared" si="114"/>
+        <v>0.24088281376627588</v>
+      </c>
+      <c r="BS71" s="1">
+        <f t="shared" si="114"/>
+        <v>9.4946401225114843E-2</v>
+      </c>
+      <c r="BT71" s="1">
+        <f t="shared" si="114"/>
+        <v>0.19749456706532828</v>
+      </c>
+      <c r="BW71" s="1">
+        <f t="shared" ref="BW71:CA71" si="115">BW59/BW34</f>
+        <v>0.22409586056644878</v>
+      </c>
+      <c r="BX71" s="1">
+        <f t="shared" si="115"/>
+        <v>0.57910104042439448</v>
+      </c>
+      <c r="BY71" s="1">
+        <f t="shared" si="115"/>
+        <v>0.32661273765039212</v>
+      </c>
+      <c r="BZ71" s="1">
+        <f t="shared" si="115"/>
+        <v>0.62360379346680717</v>
+      </c>
+      <c r="CA71" s="1">
+        <f t="shared" si="115"/>
+        <v>0.65619665414817341</v>
+      </c>
+      <c r="CD71" s="1">
+        <f t="shared" ref="CD71:CH71" si="116">CD59/CD34</f>
+        <v>0.13173292032352435</v>
+      </c>
+      <c r="CE71" s="1">
+        <f t="shared" si="116"/>
+        <v>0.40479115479115479</v>
+      </c>
+      <c r="CF71" s="1">
+        <f t="shared" si="116"/>
+        <v>6.6095132743362831E-2</v>
+      </c>
+      <c r="CG71" s="1">
+        <f t="shared" si="116"/>
+        <v>5.5790363482671176E-2</v>
+      </c>
+      <c r="CH71" s="1">
+        <f t="shared" si="116"/>
+        <v>8.8684161548483145E-2</v>
+      </c>
+      <c r="CN71" s="1">
+        <f t="shared" ref="CN71:CP71" si="117">CN59/CN34</f>
+        <v>0.62096774193548387</v>
+      </c>
+      <c r="CO71" s="1">
+        <f t="shared" si="117"/>
+        <v>0.21416712783619257</v>
+      </c>
+      <c r="CP71" s="1">
+        <f t="shared" si="117"/>
+        <v>0.14684095860566448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:94" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" ref="P72:T72" si="118">P60/P35</f>
         <v>0.20612711710748374</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="Q72" s="1">
+        <f t="shared" si="118"/>
+        <v>0.10927039242725457</v>
+      </c>
+      <c r="R72" s="1">
+        <f t="shared" si="118"/>
+        <v>0.10070880267652645</v>
+      </c>
+      <c r="S72" s="1">
+        <f t="shared" si="118"/>
+        <v>0.1589816838362999</v>
+      </c>
+      <c r="T72" s="1">
+        <f t="shared" si="118"/>
+        <v>6.7672705576244815E-2</v>
+      </c>
+      <c r="W72" s="1">
+        <f t="shared" ref="W72:Y72" si="119">W60/W35</f>
+        <v>0.10108003352539242</v>
+      </c>
+      <c r="X72" s="1">
         <f t="shared" si="119"/>
-        <v>0.10927039242725457</v>
-      </c>
-      <c r="R71" s="1">
+        <v>3.8705436014347123E-2</v>
+      </c>
+      <c r="Y72" s="1">
         <f t="shared" si="119"/>
-        <v>0.10070880267652645</v>
-      </c>
-      <c r="S71" s="1">
-        <f t="shared" si="119"/>
-        <v>0.1589816838362999</v>
-      </c>
-      <c r="T71" s="1">
-        <f t="shared" si="119"/>
-        <v>6.7672705576244815E-2</v>
-      </c>
-      <c r="W71" s="1">
-        <f t="shared" ref="W71:Y71" si="120">W59/W35</f>
-        <v>0.10108003352539242</v>
-      </c>
-      <c r="X71" s="1">
-        <f t="shared" si="120"/>
-        <v>3.8705436014347123E-2</v>
-      </c>
-      <c r="Y71" s="1">
-        <f t="shared" si="120"/>
         <v>8.2375801913057933E-2</v>
       </c>
-      <c r="AC71" s="1">
-        <f t="shared" si="51"/>
+      <c r="AC72" s="1">
+        <f t="shared" si="50"/>
         <v>0.38305609907431742</v>
       </c>
-      <c r="AD71" s="1">
-        <f t="shared" ref="AD71" si="121">AD59/AD35</f>
+      <c r="AD72" s="1">
+        <f t="shared" ref="AD72" si="120">AD60/AD35</f>
         <v>4.4191645166139548E-2</v>
       </c>
-      <c r="AM71" s="1">
-        <f t="shared" ref="AM71:AO71" si="122">AM59/AM35</f>
+      <c r="AM72" s="1">
+        <f t="shared" ref="AM72:AO72" si="121">AM60/AM35</f>
         <v>0.1431422758648084</v>
       </c>
-      <c r="AN71" s="1">
+      <c r="AN72" s="1">
+        <f t="shared" si="121"/>
+        <v>0.12639496879487863</v>
+      </c>
+      <c r="AO72" s="1">
+        <f t="shared" si="121"/>
+        <v>0.10321039972825492</v>
+      </c>
+      <c r="BA72" s="1">
+        <f t="shared" ref="BA72:BI72" si="122">BA60/BA35</f>
+        <v>0.11437701252480634</v>
+      </c>
+      <c r="BB72" s="1">
         <f t="shared" si="122"/>
-        <v>0.12639496879487863</v>
-      </c>
-      <c r="AO71" s="1">
+        <v>1.3553917374635226E-2</v>
+      </c>
+      <c r="BC72" s="1">
         <f t="shared" si="122"/>
-        <v>0.10321039972825492</v>
-      </c>
-      <c r="BA71" s="1">
-        <f t="shared" ref="BA71:BI71" si="123">BA59/BA35</f>
-        <v>0.11437701252480634</v>
-      </c>
-      <c r="BB71" s="1">
+        <v>4.9449399074995487E-2</v>
+      </c>
+      <c r="BD72" s="1">
+        <f t="shared" si="122"/>
+        <v>1.9157891711116939E-2</v>
+      </c>
+      <c r="BE72" s="1">
+        <f t="shared" si="122"/>
+        <v>1.599968185678767E-2</v>
+      </c>
+      <c r="BF72" s="1">
+        <f t="shared" si="122"/>
+        <v>1.871289555747916E-2</v>
+      </c>
+      <c r="BG72" s="1">
+        <f t="shared" si="122"/>
+        <v>5.2016738403139369E-2</v>
+      </c>
+      <c r="BH72" s="1">
+        <f t="shared" si="122"/>
+        <v>1.8233033262826548E-2</v>
+      </c>
+      <c r="BI72" s="1">
+        <f t="shared" si="122"/>
+        <v>6.9755918260999026E-3</v>
+      </c>
+      <c r="BL72" s="1">
+        <f t="shared" ref="BL72:BT72" si="123">BL60/BL35</f>
+        <v>1.302952936075919E-2</v>
+      </c>
+      <c r="BM72" s="1">
         <f t="shared" si="123"/>
-        <v>1.3553917374635226E-2</v>
-      </c>
-      <c r="BC71" s="1">
+        <v>3.4057100986113198E-2</v>
+      </c>
+      <c r="BN72" s="1">
         <f t="shared" si="123"/>
-        <v>4.9449399074995487E-2</v>
-      </c>
-      <c r="BD71" s="1">
+        <v>1.6473529802420173E-2</v>
+      </c>
+      <c r="BO72" s="1">
         <f t="shared" si="123"/>
-        <v>1.9157891711116939E-2</v>
-      </c>
-      <c r="BE71" s="1">
+        <v>1.937884981326966E-2</v>
+      </c>
+      <c r="BP72" s="1">
         <f t="shared" si="123"/>
-        <v>1.599968185678767E-2</v>
-      </c>
-      <c r="BF71" s="1">
+        <v>1.7432223650867818E-2</v>
+      </c>
+      <c r="BQ72" s="1">
         <f t="shared" si="123"/>
-        <v>1.871289555747916E-2</v>
-      </c>
-      <c r="BG71" s="1">
+        <v>4.2971117034761079E-2</v>
+      </c>
+      <c r="BR72" s="1">
         <f t="shared" si="123"/>
-        <v>5.2016738403139369E-2</v>
-      </c>
-      <c r="BH71" s="1">
+        <v>2.1429707161146352E-2</v>
+      </c>
+      <c r="BS72" s="1">
         <f t="shared" si="123"/>
-        <v>1.8233033262826548E-2</v>
-      </c>
-      <c r="BI71" s="1">
+        <v>1.1897017878802565E-2</v>
+      </c>
+      <c r="BT72" s="1">
         <f t="shared" si="123"/>
-        <v>6.9755918260999026E-3</v>
-      </c>
-      <c r="BL71" s="1">
-        <f t="shared" ref="BL71:BT71" si="124">BL59/BL35</f>
-        <v>1.302952936075919E-2</v>
-      </c>
-      <c r="BM71" s="1">
+        <v>7.1695302049092927E-2</v>
+      </c>
+      <c r="BW72" s="1">
+        <f t="shared" ref="BW72:CA72" si="124">BW60/BW35</f>
+        <v>0</v>
+      </c>
+      <c r="BX72" s="1">
         <f t="shared" si="124"/>
-        <v>3.4057100986113198E-2</v>
-      </c>
-      <c r="BN71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY72" s="1">
         <f t="shared" si="124"/>
-        <v>1.6473529802420173E-2</v>
-      </c>
-      <c r="BO71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ72" s="1">
         <f t="shared" si="124"/>
-        <v>1.937884981326966E-2</v>
-      </c>
-      <c r="BP71" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA72" s="1">
         <f t="shared" si="124"/>
-        <v>1.7432223650867818E-2</v>
-      </c>
-      <c r="BQ71" s="1">
-        <f t="shared" si="124"/>
-        <v>4.2971117034761079E-2</v>
-      </c>
-      <c r="BR71" s="1">
-        <f t="shared" si="124"/>
-        <v>2.1429707161146352E-2</v>
-      </c>
-      <c r="BS71" s="1">
-        <f t="shared" si="124"/>
-        <v>1.1897017878802565E-2</v>
-      </c>
-      <c r="BT71" s="1">
-        <f t="shared" si="124"/>
-        <v>7.1695302049092927E-2</v>
-      </c>
-      <c r="BW71" s="1">
-        <f t="shared" ref="BW71:CA71" si="125">BW59/BW35</f>
         <v>0</v>
       </c>
-      <c r="BX71" s="1">
+      <c r="CD72" s="1">
+        <f t="shared" ref="CD72:CH72" si="125">CD60/CD35</f>
+        <v>8.8008883702546545E-2</v>
+      </c>
+      <c r="CE72" s="1">
         <f t="shared" si="125"/>
+        <v>0.43635988598036918</v>
+      </c>
+      <c r="CF72" s="1">
+        <f t="shared" si="125"/>
+        <v>3.8860009862602185E-2</v>
+      </c>
+      <c r="CG72" s="1">
+        <f t="shared" si="125"/>
+        <v>3.7945229998210137E-2</v>
+      </c>
+      <c r="CH72" s="1">
+        <f t="shared" si="125"/>
+        <v>4.4432781069406749E-2</v>
+      </c>
+      <c r="CN72" s="1">
+        <f t="shared" ref="CN72:CP72" si="126">CN60/CN35</f>
         <v>0</v>
       </c>
-      <c r="BY71" s="1">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="BZ71" s="1">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="CA71" s="1">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="CD71" s="1">
-        <f t="shared" ref="CD71:CH71" si="126">CD59/CD35</f>
-        <v>8.8008883702546545E-2</v>
-      </c>
-      <c r="CE71" s="1">
+      <c r="CO72" s="1">
         <f t="shared" si="126"/>
-        <v>0.43635988598036918</v>
-      </c>
-      <c r="CF71" s="1">
+        <v>0.13000712510644213</v>
+      </c>
+      <c r="CP72" s="1">
         <f t="shared" si="126"/>
-        <v>3.8860009862602185E-2</v>
-      </c>
-      <c r="CG71" s="1">
-        <f t="shared" si="126"/>
-        <v>3.7945229998210137E-2</v>
-      </c>
-      <c r="CH71" s="1">
-        <f t="shared" si="126"/>
-        <v>4.4432781069406749E-2</v>
-      </c>
-      <c r="CN71" s="1">
-        <f t="shared" ref="CN71:CP71" si="127">CN59/CN35</f>
-        <v>0</v>
-      </c>
-      <c r="CO71" s="1">
-        <f t="shared" si="127"/>
-        <v>0.13000712510644213</v>
-      </c>
-      <c r="CP71" s="1">
-        <f t="shared" si="127"/>
         <v>7.9985228626569996E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
-      <c r="B75" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+    <row r="76" spans="1:94" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="65">
@@ -10193,9 +10253,9 @@
     <mergeCell ref="AM4:AO4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="P39:T39"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="P4:T4"/>
@@ -10228,11 +10288,11 @@
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="AB4:AE4"/>
     <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AM38:AO38"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AM39:AO39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/validation_data.xlsx
+++ b/data/validation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\xpq\IRP\irp-px122\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AADEF2-AB81-446C-B987-DD13FE17974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373587A0-9814-41D6-A607-EB3A4585EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="CI11" sqref="CI11"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="CF23" sqref="CF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10228,11 +10228,50 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CK3:CM3"/>
-    <mergeCell ref="CK2:CM2"/>
-    <mergeCell ref="CK1:CP1"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AM39:AO39"/>
+    <mergeCell ref="AS6:AX6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AS3:AX3"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="CD3:CH3"/>
     <mergeCell ref="CD4:CH4"/>
@@ -10249,50 +10288,11 @@
     <mergeCell ref="BW6:CA6"/>
     <mergeCell ref="BW3:CA3"/>
     <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="AS6:AX6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AS1:AX1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AS3:AX3"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AM39:AO39"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CK3:CM3"/>
+    <mergeCell ref="CK2:CM2"/>
+    <mergeCell ref="CK1:CP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
